--- a/Code/Results/Cases/Case_5_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,37 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.48967468088329</v>
+        <v>24.50673197196037</v>
       </c>
       <c r="C2">
-        <v>15.22288658281311</v>
+        <v>17.81028243817237</v>
       </c>
       <c r="D2">
-        <v>9.673414417659947</v>
+        <v>4.067185126365034</v>
       </c>
       <c r="E2">
-        <v>11.54913474817774</v>
+        <v>9.436838309780962</v>
       </c>
       <c r="F2">
-        <v>63.1379240641503</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>38.82332453977771</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.718150368562659</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,39 +448,39 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.45903733982069</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>27.96863687181799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.86726751891083</v>
+        <v>22.76141114846528</v>
       </c>
       <c r="C3">
-        <v>14.08913576263378</v>
+        <v>16.54835633260263</v>
       </c>
       <c r="D3">
-        <v>9.181617575283154</v>
+        <v>3.929836875916281</v>
       </c>
       <c r="E3">
-        <v>10.87066311557254</v>
+        <v>9.059246564897219</v>
       </c>
       <c r="F3">
-        <v>59.10355600160537</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>37.22033883165349</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.587375890435696</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,39 +489,39 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.11287981705659</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>26.95126749830428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.82988255115198</v>
+        <v>21.63577698406195</v>
       </c>
       <c r="C4">
-        <v>13.36632013153891</v>
+        <v>15.73372315285446</v>
       </c>
       <c r="D4">
-        <v>8.875392590172753</v>
+        <v>3.844191187000877</v>
       </c>
       <c r="E4">
-        <v>10.44724256333906</v>
+        <v>8.827171434864029</v>
       </c>
       <c r="F4">
-        <v>56.55884869006518</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>36.25379339394073</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.511406796697211</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,39 +530,39 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.25236419242416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>26.34612542516961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.39636202508577</v>
+        <v>21.16328902670624</v>
       </c>
       <c r="C5">
-        <v>13.06471417811979</v>
+        <v>15.39156881291418</v>
       </c>
       <c r="D5">
-        <v>8.749501169169317</v>
+        <v>3.809003154051112</v>
       </c>
       <c r="E5">
-        <v>10.27298701083161</v>
+        <v>8.732631430674786</v>
       </c>
       <c r="F5">
-        <v>55.50465868981797</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>35.86458398323975</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.481515293837024</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.89281034718828</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>26.10447765360659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.32371415469506</v>
+        <v>21.08399478607203</v>
       </c>
       <c r="C6">
-        <v>13.01419750584149</v>
+        <v>15.3341343130985</v>
       </c>
       <c r="D6">
-        <v>8.728530103235933</v>
+        <v>3.803144265357268</v>
       </c>
       <c r="E6">
-        <v>10.24395016191452</v>
+        <v>8.716938068159143</v>
       </c>
       <c r="F6">
-        <v>55.32857152583303</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>35.80024515850374</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.476615628722882</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,39 +612,39 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.83256062712745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>26.06465289143334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.82408009169394</v>
+        <v>21.62946090606506</v>
       </c>
       <c r="C7">
-        <v>13.36228154839899</v>
+        <v>15.72915020072619</v>
       </c>
       <c r="D7">
-        <v>8.873699256051614</v>
+        <v>3.843717728417638</v>
       </c>
       <c r="E7">
-        <v>10.44489935611062</v>
+        <v>8.82589617165228</v>
       </c>
       <c r="F7">
-        <v>56.54470123756269</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>36.24852516439488</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.510999379107458</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,39 +653,39 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.24755153320391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>26.34284635774043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.93855992436621</v>
+        <v>23.91602275168806</v>
       </c>
       <c r="C8">
-        <v>14.8372897601844</v>
+        <v>17.38332244886182</v>
       </c>
       <c r="D8">
-        <v>9.504698129052864</v>
+        <v>4.020124468443607</v>
       </c>
       <c r="E8">
-        <v>11.31660622049988</v>
+        <v>9.306742072966124</v>
       </c>
       <c r="F8">
-        <v>61.76069326004954</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>38.26705394126629</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.67214794239634</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,39 +694,39 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.00171189808309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>27.6138135104538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.77959008961232</v>
+        <v>27.98200833066827</v>
       </c>
       <c r="C9">
-        <v>17.53591435687996</v>
+        <v>20.31993920564352</v>
       </c>
       <c r="D9">
-        <v>10.71158823330154</v>
+        <v>4.354012321384846</v>
       </c>
       <c r="E9">
-        <v>12.97436853230115</v>
+        <v>10.24482285611383</v>
       </c>
       <c r="F9">
-        <v>71.47746518602841</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>42.36006572477028</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.023575353312562</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,39 +735,39 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.19013875150362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>30.26097047904155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.45136087982403</v>
+        <v>30.73121547988939</v>
       </c>
       <c r="C10">
-        <v>19.4302870971698</v>
+        <v>22.30350304792241</v>
       </c>
       <c r="D10">
-        <v>11.58756733939428</v>
+        <v>4.590228577028915</v>
       </c>
       <c r="E10">
-        <v>14.1693938819668</v>
+        <v>10.92864756097358</v>
       </c>
       <c r="F10">
-        <v>78.36266351165995</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>45.44896355649509</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.30518448136087</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,39 +776,39 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.40943940149394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>32.30399227861115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.64443460287003</v>
+        <v>31.93457429894046</v>
       </c>
       <c r="C11">
-        <v>20.28145992762635</v>
+        <v>23.17149927252887</v>
       </c>
       <c r="D11">
-        <v>11.98660390058497</v>
+        <v>4.695470367793432</v>
       </c>
       <c r="E11">
-        <v>14.71156148595302</v>
+        <v>11.23855960295361</v>
       </c>
       <c r="F11">
-        <v>81.46057623429702</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>46.8743603736385</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.438915439509393</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,39 +817,39 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.40085596623588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>33.25701631727976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.09409793678153</v>
+        <v>32.38388050875567</v>
       </c>
       <c r="C12">
-        <v>20.60316858852048</v>
+        <v>23.49557521169108</v>
       </c>
       <c r="D12">
-        <v>12.13812659116147</v>
+        <v>4.734992196267309</v>
       </c>
       <c r="E12">
-        <v>14.9170859121039</v>
+        <v>11.35578335789042</v>
       </c>
       <c r="F12">
-        <v>82.63117153136467</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>47.41742736590258</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.490422653262888</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,39 +858,39 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.77457908591582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>33.62161600683941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.9973295921846</v>
+        <v>32.2873908190592</v>
       </c>
       <c r="C13">
-        <v>20.53389328664073</v>
+        <v>23.42597931670728</v>
       </c>
       <c r="D13">
-        <v>12.10546850229205</v>
+        <v>4.726495312621736</v>
       </c>
       <c r="E13">
-        <v>14.87280464224692</v>
+        <v>11.3305421752113</v>
       </c>
       <c r="F13">
-        <v>82.37912928628111</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>47.30031329815208</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.479290063683794</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,39 +899,39 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.69415027136332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>33.54292170436444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.68146423125589</v>
+        <v>31.97166424350194</v>
       </c>
       <c r="C14">
-        <v>20.30793338376474</v>
+        <v>23.19825168911896</v>
       </c>
       <c r="D14">
-        <v>11.99905913248242</v>
+        <v>4.698728533831824</v>
       </c>
       <c r="E14">
-        <v>14.72846282704625</v>
+        <v>11.24820603620038</v>
       </c>
       <c r="F14">
-        <v>81.55691609247559</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>46.91896982184904</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.4431352304396</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,39 +940,39 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.43163062919425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>33.28693559324222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.48774680726414</v>
+        <v>31.77745518933659</v>
       </c>
       <c r="C15">
-        <v>20.16947733066728</v>
+        <v>23.05817120306141</v>
       </c>
       <c r="D15">
-        <v>11.93394622840067</v>
+        <v>4.681677219080631</v>
       </c>
       <c r="E15">
-        <v>14.64009252731104</v>
+        <v>11.19775696308135</v>
       </c>
       <c r="F15">
-        <v>81.05304167826188</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>46.68583026631467</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.421104095583835</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,39 +981,39 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.27063814277077</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>33.13063111491961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.37302861519088</v>
+        <v>30.65165635031084</v>
       </c>
       <c r="C16">
-        <v>19.37452113274353</v>
+        <v>22.24611306644967</v>
       </c>
       <c r="D16">
-        <v>11.56152705635028</v>
+        <v>4.583305001869157</v>
       </c>
       <c r="E16">
-        <v>14.13396621090568</v>
+        <v>10.90837289219887</v>
       </c>
       <c r="F16">
-        <v>78.15970993511947</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>45.35624720285207</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.296562633809439</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,39 +1022,39 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.34435561616369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>32.24220957101229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.68416494078243</v>
+        <v>29.94918765050408</v>
       </c>
       <c r="C17">
-        <v>18.88471575529975</v>
+        <v>21.73936312920769</v>
       </c>
       <c r="D17">
-        <v>11.33341115911674</v>
+        <v>4.522378745177794</v>
       </c>
       <c r="E17">
-        <v>13.8233654392678</v>
+        <v>10.73056194578191</v>
       </c>
       <c r="F17">
-        <v>76.37749490957674</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>44.54599901875289</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.221637883371853</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,39 +1063,39 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.77204571429261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>31.70343235279518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.28577022448329</v>
+        <v>29.54066884267818</v>
       </c>
       <c r="C18">
-        <v>18.60193133542971</v>
+        <v>21.44464038537539</v>
       </c>
       <c r="D18">
-        <v>11.20223137538697</v>
+        <v>4.487127515833762</v>
       </c>
       <c r="E18">
-        <v>13.6445467060026</v>
+        <v>10.62817647655662</v>
       </c>
       <c r="F18">
-        <v>75.34901494807042</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>44.08183783026799</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.179068506924385</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,39 +1104,39 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.44109507234606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>31.3957423750383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.15047720233143</v>
+        <v>29.40157060409282</v>
       </c>
       <c r="C19">
-        <v>18.50597858432925</v>
+        <v>21.34428439783644</v>
       </c>
       <c r="D19">
-        <v>11.15781195292666</v>
+        <v>4.47515680969504</v>
       </c>
       <c r="E19">
-        <v>13.58396171613118</v>
+        <v>10.59349050772587</v>
       </c>
       <c r="F19">
-        <v>75.00014305689331</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>43.92499328133287</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.164743951393612</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,39 +1145,39 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.32871187826014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>31.29193416581603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.75771403293719</v>
+        <v>30.02442719528379</v>
       </c>
       <c r="C20">
-        <v>18.93696026673483</v>
+        <v>21.7936420622458</v>
       </c>
       <c r="D20">
-        <v>11.35768961141457</v>
+        <v>4.528886094036871</v>
       </c>
       <c r="E20">
-        <v>13.85644427071597</v>
+        <v>10.74950180220223</v>
       </c>
       <c r="F20">
-        <v>76.56755099164806</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>44.63205528979201</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.229559007090934</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,39 +1186,39 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.83314665996516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>31.76055649237887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.77428942621437</v>
+        <v>32.06457030813552</v>
       </c>
       <c r="C21">
-        <v>20.3743115791658</v>
+        <v>23.26526328333322</v>
       </c>
       <c r="D21">
-        <v>12.03029966122788</v>
+        <v>4.706893359397162</v>
       </c>
       <c r="E21">
-        <v>14.77084955240284</v>
+        <v>11.2723933461678</v>
       </c>
       <c r="F21">
-        <v>81.79846584882658</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>47.03088609811951</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.453730746023038</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,39 +1227,39 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.50877702669738</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>33.36202116039185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.08053319152513</v>
+        <v>33.36097543767839</v>
       </c>
       <c r="C22">
-        <v>21.31072649516645</v>
+        <v>24.20033442894542</v>
       </c>
       <c r="D22">
-        <v>12.47254965721415</v>
+        <v>4.821301236780333</v>
       </c>
       <c r="E22">
-        <v>15.37003467969033</v>
+        <v>11.61339535328065</v>
       </c>
       <c r="F22">
-        <v>85.26402347139883</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>48.61820916591452</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.605326320472516</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,39 +1268,39 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.59454506397273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>34.43053063941427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.38401064502206</v>
+        <v>32.67228602094185</v>
       </c>
       <c r="C23">
-        <v>20.8108567265515</v>
+        <v>23.70359547296082</v>
       </c>
       <c r="D23">
-        <v>12.23613002365592</v>
+        <v>4.760418643213863</v>
       </c>
       <c r="E23">
-        <v>15.04991702736767</v>
+        <v>11.4314442015411</v>
       </c>
       <c r="F23">
-        <v>83.39628071124828</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>47.76906027721304</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.5239287095924</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,39 +1309,39 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.0155491133237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>33.85811214549002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.72446991080191</v>
+        <v>29.99042594328074</v>
       </c>
       <c r="C24">
-        <v>18.91334429171466</v>
+        <v>21.76911312524675</v>
       </c>
       <c r="D24">
-        <v>11.34671344974515</v>
+        <v>4.525944818011216</v>
       </c>
       <c r="E24">
-        <v>13.84149014076236</v>
+        <v>10.74093959233177</v>
       </c>
       <c r="F24">
-        <v>76.48163883456118</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>44.5931441021714</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.225976295534135</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,39 +1350,39 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.80552897473747</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>31.73472427356805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.76984881374335</v>
+        <v>26.92519508958964</v>
       </c>
       <c r="C25">
-        <v>16.82384956417748</v>
+        <v>19.55710480890068</v>
       </c>
       <c r="D25">
-        <v>10.3877275998996</v>
+        <v>4.265179485378733</v>
       </c>
       <c r="E25">
-        <v>12.53081261889729</v>
+        <v>9.991902731593507</v>
       </c>
       <c r="F25">
-        <v>68.89891031086118</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>41.23880996974793</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.924544712306602</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,7 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.35171417812852</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>29.52810158764653</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.50673197196037</v>
+        <v>11.98564820970799</v>
       </c>
       <c r="C2">
-        <v>17.81028243817237</v>
+        <v>7.555005136628577</v>
       </c>
       <c r="D2">
-        <v>4.067185126365034</v>
+        <v>7.05645001991212</v>
       </c>
       <c r="E2">
-        <v>9.436838309780962</v>
+        <v>6.367472934001685</v>
       </c>
       <c r="F2">
-        <v>38.82332453977771</v>
+        <v>42.22653187799196</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>31.80149279720791</v>
       </c>
       <c r="J2">
-        <v>6.718150368562659</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.73409376465801</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.693305611159342</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.733712207466573</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.96863687181799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.76141114846528</v>
+        <v>11.29928419517604</v>
       </c>
       <c r="C3">
-        <v>16.54835633260263</v>
+        <v>7.061773551127744</v>
       </c>
       <c r="D3">
-        <v>3.929836875916281</v>
+        <v>7.059873505305979</v>
       </c>
       <c r="E3">
-        <v>9.059246564897219</v>
+        <v>6.363188448433184</v>
       </c>
       <c r="F3">
-        <v>37.22033883165349</v>
+        <v>40.79981435817175</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>31.03942932568484</v>
       </c>
       <c r="J3">
-        <v>6.587375890435696</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.989753542312013</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.609070179714831</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.501047144849553</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.95126749830428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.63577698406195</v>
+        <v>10.86661903954314</v>
       </c>
       <c r="C4">
-        <v>15.73372315285446</v>
+        <v>6.744251337551789</v>
       </c>
       <c r="D4">
-        <v>3.844191187000877</v>
+        <v>7.061894522418655</v>
       </c>
       <c r="E4">
-        <v>8.827171434864029</v>
+        <v>6.362260963620184</v>
       </c>
       <c r="F4">
-        <v>36.25379339394073</v>
+        <v>39.92152322885156</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>30.57618022355337</v>
       </c>
       <c r="J4">
-        <v>6.511406796697211</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.508703084559585</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.560239989264787</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.362279189561937</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.34612542516961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.16328902670624</v>
+        <v>10.68767888091959</v>
       </c>
       <c r="C5">
-        <v>15.39156881291418</v>
+        <v>6.611135249945395</v>
       </c>
       <c r="D5">
-        <v>3.809003154051112</v>
+        <v>7.062697846993632</v>
       </c>
       <c r="E5">
-        <v>8.732631430674786</v>
+        <v>6.362302550360177</v>
       </c>
       <c r="F5">
-        <v>35.86458398323975</v>
+        <v>39.56337121246419</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>30.38867151184715</v>
       </c>
       <c r="J5">
-        <v>6.481515293837024</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.306557752160797</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.541064597388944</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.306807533787937</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.10447765360659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.08399478607203</v>
+        <v>10.65781416436018</v>
       </c>
       <c r="C6">
-        <v>15.3341343130985</v>
+        <v>6.588805744398909</v>
       </c>
       <c r="D6">
-        <v>3.803144265357268</v>
+        <v>7.062830017415919</v>
       </c>
       <c r="E6">
-        <v>8.716938068159143</v>
+        <v>6.362334545635112</v>
       </c>
       <c r="F6">
-        <v>35.80024515850374</v>
+        <v>39.50389614256305</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>30.35761542682792</v>
       </c>
       <c r="J6">
-        <v>6.476615628722882</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.272620387770086</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.537924103570111</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.297663013015001</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.06465289143334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.62946090606506</v>
+        <v>10.86421612332289</v>
       </c>
       <c r="C7">
-        <v>15.72915020072619</v>
+        <v>6.7424712003989</v>
       </c>
       <c r="D7">
-        <v>3.843717728417638</v>
+        <v>7.061905438235892</v>
       </c>
       <c r="E7">
-        <v>8.82589617165228</v>
+        <v>6.362259837066471</v>
       </c>
       <c r="F7">
-        <v>36.24852516439488</v>
+        <v>39.91669357811256</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>30.57364614458819</v>
       </c>
       <c r="J7">
-        <v>6.510999379107458</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.506001728278187</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.559978459881263</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.361526652120967</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.34284635774043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.91602275168806</v>
+        <v>11.75142734004222</v>
       </c>
       <c r="C8">
-        <v>17.38332244886182</v>
+        <v>7.387962742056148</v>
       </c>
       <c r="D8">
-        <v>4.020124468443607</v>
+        <v>7.057647340159077</v>
       </c>
       <c r="E8">
-        <v>9.306742072966124</v>
+        <v>6.365636775146494</v>
       </c>
       <c r="F8">
-        <v>38.26705394126629</v>
+        <v>41.73526104058011</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>31.5378218379103</v>
       </c>
       <c r="J8">
-        <v>6.67214794239634</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.48238612311733</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.663659293547186</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.65266984468853</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.6138135104538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.98200833066827</v>
+        <v>13.54909329820303</v>
       </c>
       <c r="C9">
-        <v>20.31993920564352</v>
+        <v>8.539204836451908</v>
       </c>
       <c r="D9">
-        <v>4.354012321384846</v>
+        <v>7.048645626375325</v>
       </c>
       <c r="E9">
-        <v>10.24482285611383</v>
+        <v>6.386186920144857</v>
       </c>
       <c r="F9">
-        <v>42.36006572477028</v>
+        <v>45.2708709933631</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>33.46181197770965</v>
       </c>
       <c r="J9">
-        <v>7.023575353312562</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.20995865292486</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.890063509637202</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.25397486195513</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.26097047904155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.73121547988939</v>
+        <v>14.8724842402323</v>
       </c>
       <c r="C10">
-        <v>22.30350304792241</v>
+        <v>9.318341700665115</v>
       </c>
       <c r="D10">
-        <v>4.590228577028915</v>
+        <v>7.041617090264624</v>
       </c>
       <c r="E10">
-        <v>10.92864756097358</v>
+        <v>6.410384857765937</v>
       </c>
       <c r="F10">
-        <v>45.44896355649509</v>
+        <v>47.83655353406511</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.89170942093769</v>
       </c>
       <c r="J10">
-        <v>7.30518448136087</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.37033664625703</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.070709718718146</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.71177263877698</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>32.30399227861115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.93457429894046</v>
+        <v>15.4493880760861</v>
       </c>
       <c r="C11">
-        <v>23.17149927252887</v>
+        <v>9.659153313454636</v>
       </c>
       <c r="D11">
-        <v>4.695470367793432</v>
+        <v>7.038324109695743</v>
       </c>
       <c r="E11">
-        <v>11.23855960295361</v>
+        <v>6.42351366101167</v>
       </c>
       <c r="F11">
-        <v>46.8743603736385</v>
+        <v>48.99506397006462</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>35.54529322116923</v>
       </c>
       <c r="J11">
-        <v>7.438915439509393</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.8758313988591</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.156062073770254</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.92309968355088</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>33.25701631727976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.38388050875567</v>
+        <v>15.6643460170521</v>
       </c>
       <c r="C12">
-        <v>23.49557521169108</v>
+        <v>9.786330880316696</v>
       </c>
       <c r="D12">
-        <v>4.734992196267309</v>
+        <v>7.037062844427765</v>
       </c>
       <c r="E12">
-        <v>11.35578335789042</v>
+        <v>6.428803180808094</v>
       </c>
       <c r="F12">
-        <v>47.41742736590258</v>
+        <v>49.43244671405547</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35.79322560038722</v>
       </c>
       <c r="J12">
-        <v>7.490422653262888</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.06414510435798</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.188846270105939</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.00354066062614</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>33.62161600683941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.2873908190592</v>
+        <v>15.6182049161166</v>
       </c>
       <c r="C13">
-        <v>23.42597931670728</v>
+        <v>9.759023198069883</v>
       </c>
       <c r="D13">
-        <v>4.726495312621736</v>
+        <v>7.037335125237375</v>
       </c>
       <c r="E13">
-        <v>11.3305421752113</v>
+        <v>6.427649631063568</v>
       </c>
       <c r="F13">
-        <v>47.30031329815208</v>
+        <v>49.33830784060119</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>35.73980954358051</v>
       </c>
       <c r="J13">
-        <v>7.479290063683794</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.02372467110192</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.181764882865838</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.98619806468811</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>33.54292170436444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.97166424350194</v>
+        <v>15.46714233565042</v>
       </c>
       <c r="C14">
-        <v>23.19825168911896</v>
+        <v>9.669653491926066</v>
       </c>
       <c r="D14">
-        <v>4.698728533831824</v>
+        <v>7.038220634301608</v>
       </c>
       <c r="E14">
-        <v>11.24820603620038</v>
+        <v>6.423942383473868</v>
       </c>
       <c r="F14">
-        <v>46.91896982184904</v>
+        <v>49.03107440600257</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>35.56568204649429</v>
       </c>
       <c r="J14">
-        <v>7.4431352304396</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.89138566864341</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.158749922928598</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.9297093879738</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>33.28693559324222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.77745518933659</v>
+        <v>15.37415937595959</v>
       </c>
       <c r="C15">
-        <v>23.05817120306141</v>
+        <v>9.614669569543818</v>
       </c>
       <c r="D15">
-        <v>4.681677219080631</v>
+        <v>7.038761156541915</v>
       </c>
       <c r="E15">
-        <v>11.19775696308135</v>
+        <v>6.421713392210846</v>
       </c>
       <c r="F15">
-        <v>46.68583026631467</v>
+        <v>48.84271182797029</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>35.45908053563432</v>
       </c>
       <c r="J15">
-        <v>7.421104095583835</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.80992312139302</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.144713135680769</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.89516201320609</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>33.13063111491961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.65165635031084</v>
+        <v>14.83428583975707</v>
       </c>
       <c r="C16">
-        <v>22.24611306644967</v>
+        <v>9.295801247772625</v>
       </c>
       <c r="D16">
-        <v>4.583305001869157</v>
+        <v>7.041830326226475</v>
       </c>
       <c r="E16">
-        <v>10.90837289219887</v>
+        <v>6.409570621791184</v>
       </c>
       <c r="F16">
-        <v>45.35624720285207</v>
+        <v>47.76066037965938</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.84905712800473</v>
       </c>
       <c r="J16">
-        <v>7.296562633809439</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.33686050060173</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.065196147012748</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.69802133056504</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>32.24220957101229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.94918765050408</v>
+        <v>14.49673185591391</v>
       </c>
       <c r="C17">
-        <v>21.73936312920769</v>
+        <v>9.096749911320323</v>
       </c>
       <c r="D17">
-        <v>4.522378745177794</v>
+        <v>7.043688313713475</v>
       </c>
       <c r="E17">
-        <v>10.73056194578191</v>
+        <v>6.402673552768936</v>
       </c>
       <c r="F17">
-        <v>44.54599901875289</v>
+        <v>47.0945714533801</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>34.47560786995311</v>
       </c>
       <c r="J17">
-        <v>7.221637883371853</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.04099869028821</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.017232344331879</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.57784763424625</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>31.70343235279518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.54066884267818</v>
+        <v>14.30020871534344</v>
       </c>
       <c r="C18">
-        <v>21.44464038537539</v>
+        <v>8.980973479103097</v>
       </c>
       <c r="D18">
-        <v>4.487127515833762</v>
+        <v>7.044748011766103</v>
       </c>
       <c r="E18">
-        <v>10.62817647655662</v>
+        <v>6.398905353161903</v>
       </c>
       <c r="F18">
-        <v>44.08183783026799</v>
+        <v>46.71064339188107</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>34.26110238306384</v>
       </c>
       <c r="J18">
-        <v>7.179068506924385</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.86871439841069</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.989943232690704</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.50901712514785</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>31.3957423750383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.40157060409282</v>
+        <v>14.23325903811538</v>
       </c>
       <c r="C19">
-        <v>21.34428439783644</v>
+        <v>8.94155022297435</v>
       </c>
       <c r="D19">
-        <v>4.47515680969504</v>
+        <v>7.0451052817958</v>
       </c>
       <c r="E19">
-        <v>10.59349050772587</v>
+        <v>6.397663274381928</v>
       </c>
       <c r="F19">
-        <v>43.92499328133287</v>
+        <v>46.58051596533616</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>34.18852560969019</v>
       </c>
       <c r="J19">
-        <v>7.164743951393612</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.81001588242718</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.980754694511989</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.48576307860817</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>31.29193416581603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.02442719528379</v>
+        <v>14.53290970076252</v>
       </c>
       <c r="C20">
-        <v>21.7936420622458</v>
+        <v>9.118071965137856</v>
       </c>
       <c r="D20">
-        <v>4.528886094036871</v>
+        <v>7.043491459376436</v>
       </c>
       <c r="E20">
-        <v>10.74950180220223</v>
+        <v>6.403387090899249</v>
       </c>
       <c r="F20">
-        <v>44.63205528979201</v>
+        <v>47.16556248507663</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>34.51533207468061</v>
       </c>
       <c r="J20">
-        <v>7.229559007090934</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.07271154220297</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.022307249589159</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.59061050879096</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>31.76055649237887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.06457030813552</v>
+        <v>15.51160722238763</v>
       </c>
       <c r="C21">
-        <v>23.26526328333322</v>
+        <v>9.695953903025915</v>
       </c>
       <c r="D21">
-        <v>4.706893359397162</v>
+        <v>7.037960931198367</v>
       </c>
       <c r="E21">
-        <v>11.2723933461678</v>
+        <v>6.425022555273411</v>
       </c>
       <c r="F21">
-        <v>47.03088609811951</v>
+        <v>49.12135247024666</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>35.61681570302464</v>
       </c>
       <c r="J21">
-        <v>7.453730746023038</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.93034021764183</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.1654973432618</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.94629035014619</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>33.36202116039185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.36097543767839</v>
+        <v>16.13088385491203</v>
       </c>
       <c r="C22">
-        <v>24.20033442894542</v>
+        <v>10.06271604399552</v>
       </c>
       <c r="D22">
-        <v>4.821301236780333</v>
+        <v>7.034262832757819</v>
       </c>
       <c r="E22">
-        <v>11.61339535328065</v>
+        <v>6.441022491954016</v>
       </c>
       <c r="F22">
-        <v>48.61820916591452</v>
+        <v>50.39188665133057</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>36.33924391577382</v>
       </c>
       <c r="J22">
-        <v>7.605326320472516</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.47280307372557</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.26178443707232</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.181167541749</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>34.43053063941427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.67228602094185</v>
+        <v>15.80218796460622</v>
       </c>
       <c r="C23">
-        <v>23.70359547296082</v>
+        <v>9.867938717002071</v>
       </c>
       <c r="D23">
-        <v>4.760418643213863</v>
+        <v>7.036244424677501</v>
       </c>
       <c r="E23">
-        <v>11.4314442015411</v>
+        <v>6.432308289259557</v>
       </c>
       <c r="F23">
-        <v>47.76906027721304</v>
+        <v>49.7144924899024</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>35.95343504753551</v>
       </c>
       <c r="J23">
-        <v>7.5239287095924</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.18489281611575</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.210144032827905</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.05559376345311</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>33.85811214549002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.99042594328074</v>
+        <v>14.51656136393159</v>
       </c>
       <c r="C24">
-        <v>21.76911312524675</v>
+        <v>9.108436441622333</v>
       </c>
       <c r="D24">
-        <v>4.525944818011216</v>
+        <v>7.04358048360993</v>
       </c>
       <c r="E24">
-        <v>10.74093959233177</v>
+        <v>6.403063887608933</v>
       </c>
       <c r="F24">
-        <v>44.5931441021714</v>
+        <v>47.13347049991801</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>34.49737215149103</v>
       </c>
       <c r="J24">
-        <v>7.225976295534135</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.05838098954176</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.020011994810216</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.58483960455227</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>31.73472427356805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.92519508958964</v>
+        <v>13.03882267395622</v>
       </c>
       <c r="C25">
-        <v>19.55710480890068</v>
+        <v>8.239730448153558</v>
       </c>
       <c r="D25">
-        <v>4.265179485378733</v>
+        <v>7.051152157630616</v>
       </c>
       <c r="E25">
-        <v>9.991902731593507</v>
+        <v>6.379075784788353</v>
       </c>
       <c r="F25">
-        <v>41.23880996974793</v>
+        <v>44.3192255083619</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>32.93822556182722</v>
       </c>
       <c r="J25">
-        <v>6.924544712306602</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.76212112148113</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.826320655448292</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.08832883831552</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.52810158764653</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.98564820970799</v>
+        <v>14.15440837047039</v>
       </c>
       <c r="C2">
-        <v>7.555005136628577</v>
+        <v>4.763913061872528</v>
       </c>
       <c r="D2">
-        <v>7.05645001991212</v>
+        <v>9.106701891441801</v>
       </c>
       <c r="E2">
-        <v>6.367472934001685</v>
+        <v>10.42840865307176</v>
       </c>
       <c r="F2">
-        <v>42.22653187799196</v>
+        <v>45.31107084622924</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>31.80149279720791</v>
+        <v>37.03918245434775</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.73409376465801</v>
+        <v>12.59491124901308</v>
       </c>
       <c r="L2">
-        <v>6.693305611159342</v>
+        <v>10.54869075530686</v>
       </c>
       <c r="M2">
-        <v>9.733712207466573</v>
+        <v>15.46849324139407</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.29928419517604</v>
+        <v>14.07919227042468</v>
       </c>
       <c r="C3">
-        <v>7.061773551127744</v>
+        <v>4.521650149323654</v>
       </c>
       <c r="D3">
-        <v>7.059873505305979</v>
+        <v>9.096251255058386</v>
       </c>
       <c r="E3">
-        <v>6.363188448433184</v>
+        <v>10.44012375205418</v>
       </c>
       <c r="F3">
-        <v>40.79981435817175</v>
+        <v>44.98296002507969</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>31.03942932568484</v>
+        <v>36.87890517410655</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.989753542312013</v>
+        <v>12.5384462716342</v>
       </c>
       <c r="L3">
-        <v>6.609070179714831</v>
+        <v>10.55690322042603</v>
       </c>
       <c r="M3">
-        <v>9.501047144849553</v>
+        <v>15.48061640937515</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86661903954314</v>
+        <v>14.03759974515406</v>
       </c>
       <c r="C4">
-        <v>6.744251337551789</v>
+        <v>4.36505995200638</v>
       </c>
       <c r="D4">
-        <v>7.061894522418655</v>
+        <v>9.089571111249564</v>
       </c>
       <c r="E4">
-        <v>6.362260963620184</v>
+        <v>10.44809934928624</v>
       </c>
       <c r="F4">
-        <v>39.92152322885156</v>
+        <v>44.78664169360854</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>30.57618022355337</v>
+        <v>36.78399229748975</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.508703084559585</v>
+        <v>12.50763355593799</v>
       </c>
       <c r="L4">
-        <v>6.560239989264787</v>
+        <v>10.56341049827725</v>
       </c>
       <c r="M4">
-        <v>9.362279189561937</v>
+        <v>15.49112978020088</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.68767888091959</v>
+        <v>14.02182225988627</v>
       </c>
       <c r="C5">
-        <v>6.611135249945395</v>
+        <v>4.299305600786679</v>
       </c>
       <c r="D5">
-        <v>7.062697846993632</v>
+        <v>9.086782373268074</v>
       </c>
       <c r="E5">
-        <v>6.362302550360177</v>
+        <v>10.45154654763899</v>
       </c>
       <c r="F5">
-        <v>39.56337121246419</v>
+        <v>44.70798604298045</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>30.38867151184715</v>
+        <v>36.74621056018894</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.306557752160797</v>
+        <v>12.49605880608902</v>
       </c>
       <c r="L5">
-        <v>6.541064597388944</v>
+        <v>10.56643086163656</v>
       </c>
       <c r="M5">
-        <v>9.306807533787937</v>
+        <v>15.49618636401391</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.65781416436018</v>
+        <v>14.01927366673519</v>
       </c>
       <c r="C6">
-        <v>6.588805744398909</v>
+        <v>4.288270775519917</v>
       </c>
       <c r="D6">
-        <v>7.062830017415919</v>
+        <v>9.086315278974954</v>
       </c>
       <c r="E6">
-        <v>6.362334545635112</v>
+        <v>10.45213086453234</v>
       </c>
       <c r="F6">
-        <v>39.50389614256305</v>
+        <v>44.69500808917584</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>30.35761542682792</v>
+        <v>36.73999150772359</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.272620387770086</v>
+        <v>12.49419643437504</v>
       </c>
       <c r="L6">
-        <v>6.537924103570111</v>
+        <v>10.56695465912585</v>
       </c>
       <c r="M6">
-        <v>9.297663013015001</v>
+        <v>15.49707265752916</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.86421612332289</v>
+        <v>14.03738219826458</v>
       </c>
       <c r="C7">
-        <v>6.7424712003989</v>
+        <v>4.364180988735096</v>
       </c>
       <c r="D7">
-        <v>7.061905438235892</v>
+        <v>9.089533771106293</v>
       </c>
       <c r="E7">
-        <v>6.362259837066471</v>
+        <v>10.44814504102388</v>
       </c>
       <c r="F7">
-        <v>39.91669357811256</v>
+        <v>44.78557540022118</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>30.57364614458819</v>
+        <v>36.78347911100355</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.506001728278187</v>
+        <v>12.50747346556249</v>
       </c>
       <c r="L7">
-        <v>6.559978459881263</v>
+        <v>10.56344973923695</v>
       </c>
       <c r="M7">
-        <v>9.361526652120967</v>
+        <v>15.49119484772513</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.75142734004222</v>
+        <v>14.12753221161241</v>
       </c>
       <c r="C8">
-        <v>7.387962742056148</v>
+        <v>4.682023433956594</v>
       </c>
       <c r="D8">
-        <v>7.057647340159077</v>
+        <v>9.10315300927307</v>
       </c>
       <c r="E8">
-        <v>6.365636775146494</v>
+        <v>10.43228580670822</v>
       </c>
       <c r="F8">
-        <v>41.73526104058011</v>
+        <v>45.1969029562372</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>31.5378218379103</v>
+        <v>36.98320299637204</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.48238612311733</v>
+        <v>12.57464913939016</v>
       </c>
       <c r="L8">
-        <v>6.663659293547186</v>
+        <v>10.55121857141885</v>
       </c>
       <c r="M8">
-        <v>9.65266984468853</v>
+        <v>15.4720365066645</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.54909329820303</v>
+        <v>14.33987600051752</v>
       </c>
       <c r="C9">
-        <v>8.539204836451908</v>
+        <v>5.242122731514795</v>
       </c>
       <c r="D9">
-        <v>7.048645626375325</v>
+        <v>9.127783482380348</v>
       </c>
       <c r="E9">
-        <v>6.386186920144857</v>
+        <v>10.40738069830952</v>
       </c>
       <c r="F9">
-        <v>45.2708709933631</v>
+        <v>46.04191804463387</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>33.46181197770965</v>
+        <v>37.40185415276833</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.20995865292486</v>
+        <v>12.73639499215219</v>
       </c>
       <c r="L9">
-        <v>6.890063509637202</v>
+        <v>10.53884257471795</v>
       </c>
       <c r="M9">
-        <v>10.25397486195513</v>
+        <v>15.45879720280734</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.8724842402323</v>
+        <v>14.51627967081294</v>
       </c>
       <c r="C10">
-        <v>9.318341700665115</v>
+        <v>5.614117291717593</v>
       </c>
       <c r="D10">
-        <v>7.041617090264624</v>
+        <v>9.144632050779562</v>
       </c>
       <c r="E10">
-        <v>6.410384857765937</v>
+        <v>10.39284100955307</v>
       </c>
       <c r="F10">
-        <v>47.83655353406511</v>
+        <v>46.68281271699482</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>34.89170942093769</v>
+        <v>37.7248167794261</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.37033664625703</v>
+        <v>12.87264201442705</v>
       </c>
       <c r="L10">
-        <v>7.070709718718146</v>
+        <v>10.53680699720717</v>
       </c>
       <c r="M10">
-        <v>10.71177263877698</v>
+        <v>15.46385355267193</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.4493880760861</v>
+        <v>14.60065147037849</v>
       </c>
       <c r="C11">
-        <v>9.659153313454636</v>
+        <v>5.774634069343143</v>
       </c>
       <c r="D11">
-        <v>7.038324109695743</v>
+        <v>9.152029977660311</v>
       </c>
       <c r="E11">
-        <v>6.42351366101167</v>
+        <v>10.3870385955086</v>
       </c>
       <c r="F11">
-        <v>48.99506397006462</v>
+        <v>46.97798147035312</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>35.54529322116923</v>
+        <v>37.87483179524321</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.8758313988591</v>
+        <v>12.93818980228987</v>
       </c>
       <c r="L11">
-        <v>7.156062073770254</v>
+        <v>10.53740751975719</v>
       </c>
       <c r="M11">
-        <v>10.92309968355088</v>
+        <v>15.46934778368548</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.6643460170521</v>
+        <v>14.63316619133229</v>
       </c>
       <c r="C12">
-        <v>9.786330880316696</v>
+        <v>5.834158085481824</v>
       </c>
       <c r="D12">
-        <v>7.037062844427765</v>
+        <v>9.154793340403252</v>
       </c>
       <c r="E12">
-        <v>6.428803180808094</v>
+        <v>10.38495776642915</v>
       </c>
       <c r="F12">
-        <v>49.43244671405547</v>
+        <v>47.09021013130783</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>35.79322560038722</v>
+        <v>37.93206140281046</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.06414510435798</v>
+        <v>12.96350435470621</v>
       </c>
       <c r="L12">
-        <v>7.188846270105939</v>
+        <v>10.53785377454323</v>
       </c>
       <c r="M12">
-        <v>11.00354066062614</v>
+        <v>15.47188572228558</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.6182049161166</v>
+        <v>14.62613889899466</v>
       </c>
       <c r="C13">
-        <v>9.759023198069883</v>
+        <v>5.821394680119312</v>
       </c>
       <c r="D13">
-        <v>7.037335125237375</v>
+        <v>9.154199889919902</v>
       </c>
       <c r="E13">
-        <v>6.427649631063568</v>
+        <v>10.3854007374449</v>
       </c>
       <c r="F13">
-        <v>49.33830784060119</v>
+        <v>47.06602052323527</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>35.73980954358051</v>
+        <v>37.91971758506379</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.02372467110192</v>
+        <v>12.95803081562091</v>
       </c>
       <c r="L13">
-        <v>7.181764882865838</v>
+        <v>10.53774794361831</v>
       </c>
       <c r="M13">
-        <v>10.98619806468811</v>
+        <v>15.4713188227276</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.46714233565042</v>
+        <v>14.60331531911257</v>
       </c>
       <c r="C14">
-        <v>9.669653491926066</v>
+        <v>5.77955644199828</v>
       </c>
       <c r="D14">
-        <v>7.038220634301608</v>
+        <v>9.152258082706968</v>
       </c>
       <c r="E14">
-        <v>6.423942383473868</v>
+        <v>10.38686507303639</v>
       </c>
       <c r="F14">
-        <v>49.03107440600257</v>
+        <v>46.98720586009048</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>35.56568204649429</v>
+        <v>37.87953178447223</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.89138566864341</v>
+        <v>12.94026268330019</v>
       </c>
       <c r="L14">
-        <v>7.158749922928598</v>
+        <v>10.53743985141926</v>
       </c>
       <c r="M14">
-        <v>10.9297093879738</v>
+        <v>15.46954742659592</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.37415937595959</v>
+        <v>14.58940793441239</v>
       </c>
       <c r="C15">
-        <v>9.614669569543818</v>
+        <v>5.753764988956685</v>
       </c>
       <c r="D15">
-        <v>7.038761156541915</v>
+        <v>9.151063719353642</v>
       </c>
       <c r="E15">
-        <v>6.421713392210846</v>
+        <v>10.38777717275215</v>
       </c>
       <c r="F15">
-        <v>48.84271182797029</v>
+        <v>46.938986833215</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>35.45908053563432</v>
+        <v>37.85497109734834</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.80992312139302</v>
+        <v>12.92944278289144</v>
       </c>
       <c r="L15">
-        <v>7.144713135680769</v>
+        <v>10.53727961569181</v>
       </c>
       <c r="M15">
-        <v>10.89516201320609</v>
+        <v>15.46852189954252</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.83428583975707</v>
+        <v>14.51084639430343</v>
       </c>
       <c r="C16">
-        <v>9.295801247772625</v>
+        <v>5.603451196724925</v>
       </c>
       <c r="D16">
-        <v>7.041830326226475</v>
+        <v>9.144143237161503</v>
       </c>
       <c r="E16">
-        <v>6.409570621791184</v>
+        <v>10.39323651921307</v>
       </c>
       <c r="F16">
-        <v>47.76066037965938</v>
+        <v>46.66358999514382</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>34.84905712800473</v>
+        <v>37.71507330785395</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.33686050060173</v>
+        <v>12.86842842138641</v>
       </c>
       <c r="L16">
-        <v>7.065196147012748</v>
+        <v>10.53679841447859</v>
       </c>
       <c r="M16">
-        <v>10.69802133056504</v>
+        <v>15.46355860806073</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.49673185591391</v>
+        <v>14.46368822684977</v>
       </c>
       <c r="C17">
-        <v>9.096749911320323</v>
+        <v>5.509002152256529</v>
       </c>
       <c r="D17">
-        <v>7.043688313713475</v>
+        <v>9.139829657106873</v>
       </c>
       <c r="E17">
-        <v>6.402673552768936</v>
+        <v>10.39679334360056</v>
       </c>
       <c r="F17">
-        <v>47.0945714533801</v>
+        <v>46.49552391494316</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>34.47560786995311</v>
+        <v>37.63002763727706</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.04099869028821</v>
+        <v>12.83189804694174</v>
       </c>
       <c r="L17">
-        <v>7.017232344331879</v>
+        <v>10.53689374714501</v>
       </c>
       <c r="M17">
-        <v>10.57784763424625</v>
+        <v>15.46133060240835</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.30020871534344</v>
+        <v>14.43695411838073</v>
       </c>
       <c r="C18">
-        <v>8.980973479103097</v>
+        <v>5.453858497625558</v>
       </c>
       <c r="D18">
-        <v>7.044748011766103</v>
+        <v>9.137323493620791</v>
       </c>
       <c r="E18">
-        <v>6.398905353161903</v>
+        <v>10.39891556088523</v>
       </c>
       <c r="F18">
-        <v>46.71064339188107</v>
+        <v>46.39920175177483</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>34.26110238306384</v>
+        <v>37.58140463179206</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.86871439841069</v>
+        <v>12.81122388059484</v>
       </c>
       <c r="L18">
-        <v>6.989943232690704</v>
+        <v>10.53709230795095</v>
       </c>
       <c r="M18">
-        <v>10.50901712514785</v>
+        <v>15.46034988691187</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.23325903811538</v>
+        <v>14.42797023529305</v>
       </c>
       <c r="C19">
-        <v>8.94155022297435</v>
+        <v>5.43504742390701</v>
       </c>
       <c r="D19">
-        <v>7.0451052817958</v>
+        <v>9.136470629673051</v>
       </c>
       <c r="E19">
-        <v>6.397663274381928</v>
+        <v>10.39964724282485</v>
       </c>
       <c r="F19">
-        <v>46.58051596533616</v>
+        <v>46.36664998123803</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>34.18852560969019</v>
+        <v>37.56499273912033</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.81001588242718</v>
+        <v>12.80428246278381</v>
       </c>
       <c r="L19">
-        <v>6.980754694511989</v>
+        <v>10.53718424139312</v>
       </c>
       <c r="M19">
-        <v>10.48576307860817</v>
+        <v>15.46006954513181</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.53290970076252</v>
+        <v>14.46866812916586</v>
       </c>
       <c r="C20">
-        <v>9.118071965137856</v>
+        <v>5.519141252245399</v>
       </c>
       <c r="D20">
-        <v>7.043491459376436</v>
+        <v>9.140291441583885</v>
       </c>
       <c r="E20">
-        <v>6.403387090899249</v>
+        <v>10.39640680601326</v>
       </c>
       <c r="F20">
-        <v>47.16556248507663</v>
+        <v>46.51337960733576</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>34.51533207468061</v>
+        <v>37.63905073439264</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.07271154220297</v>
+        <v>12.83575201754993</v>
       </c>
       <c r="L20">
-        <v>7.022307249589159</v>
+        <v>10.53686872805998</v>
       </c>
       <c r="M20">
-        <v>10.59061050879096</v>
+        <v>15.46153666136152</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.51160722238763</v>
+        <v>14.61000405549268</v>
       </c>
       <c r="C21">
-        <v>9.695953903025915</v>
+        <v>5.791879603431142</v>
       </c>
       <c r="D21">
-        <v>7.037960931198367</v>
+        <v>9.152829469746205</v>
       </c>
       <c r="E21">
-        <v>6.425022555273411</v>
+        <v>10.3864318051019</v>
       </c>
       <c r="F21">
-        <v>49.12135247024666</v>
+        <v>47.01034382974478</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>35.61681570302464</v>
+        <v>37.89132405971952</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.93034021764183</v>
+        <v>12.94546839880322</v>
       </c>
       <c r="L21">
-        <v>7.1654973432618</v>
+        <v>10.53752441173493</v>
       </c>
       <c r="M21">
-        <v>10.94629035014619</v>
+        <v>15.47005533177802</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.13088385491203</v>
+        <v>14.70565438827407</v>
       </c>
       <c r="C22">
-        <v>10.06271604399552</v>
+        <v>5.96278213881091</v>
       </c>
       <c r="D22">
-        <v>7.034262832757819</v>
+        <v>9.160802003894569</v>
       </c>
       <c r="E22">
-        <v>6.441022491954016</v>
+        <v>10.38059099726841</v>
       </c>
       <c r="F22">
-        <v>50.39188665133057</v>
+        <v>47.33775756086188</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>36.33924391577382</v>
+        <v>38.05864871053932</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.47280307372557</v>
+        <v>13.02003815903161</v>
       </c>
       <c r="L22">
-        <v>7.26178443707232</v>
+        <v>10.53922819678812</v>
       </c>
       <c r="M22">
-        <v>11.181167541749</v>
+        <v>15.47828771314752</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.80218796460622</v>
+        <v>14.65431356334498</v>
       </c>
       <c r="C23">
-        <v>9.867938717002071</v>
+        <v>5.872242737331114</v>
       </c>
       <c r="D23">
-        <v>7.036244424677501</v>
+        <v>9.15656712112248</v>
       </c>
       <c r="E23">
-        <v>6.432308289259557</v>
+        <v>10.3836463740069</v>
       </c>
       <c r="F23">
-        <v>49.7144924899024</v>
+        <v>47.16279314071489</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>35.95343504753551</v>
+        <v>37.96912815309024</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.18489281611575</v>
+        <v>12.97998372391842</v>
       </c>
       <c r="L23">
-        <v>7.210144032827905</v>
+        <v>10.53820240897063</v>
       </c>
       <c r="M23">
-        <v>11.05559376345311</v>
+        <v>15.47365080236726</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.51656136393159</v>
+        <v>14.46641553655842</v>
       </c>
       <c r="C24">
-        <v>9.108436441622333</v>
+        <v>5.51455999228208</v>
       </c>
       <c r="D24">
-        <v>7.04358048360993</v>
+        <v>9.140082750533036</v>
       </c>
       <c r="E24">
-        <v>6.403063887608933</v>
+        <v>10.39658131870129</v>
       </c>
       <c r="F24">
-        <v>47.13347049991801</v>
+        <v>46.50530610530308</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>34.49737215149103</v>
+        <v>37.63497054660531</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.05838098954176</v>
+        <v>12.83400861539092</v>
       </c>
       <c r="L24">
-        <v>7.020011994810216</v>
+        <v>10.53687959137258</v>
       </c>
       <c r="M24">
-        <v>10.58483960455227</v>
+        <v>15.46144256690058</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.03882267395622</v>
+        <v>14.27875025774938</v>
       </c>
       <c r="C25">
-        <v>8.239730448153558</v>
+        <v>5.09748333206925</v>
       </c>
       <c r="D25">
-        <v>7.051152157630616</v>
+        <v>9.121340682533857</v>
       </c>
       <c r="E25">
-        <v>6.379075784788353</v>
+        <v>10.41345687919252</v>
       </c>
       <c r="F25">
-        <v>44.3192255083619</v>
+        <v>45.80954633866832</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>32.93822556182722</v>
+        <v>37.28581523774007</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.76212112148113</v>
+        <v>12.68951132431414</v>
       </c>
       <c r="L25">
-        <v>6.826320655448292</v>
+        <v>10.54094953229528</v>
       </c>
       <c r="M25">
-        <v>10.08832883831552</v>
+        <v>15.45977802025102</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.15440837047039</v>
+        <v>11.98564820970796</v>
       </c>
       <c r="C2">
-        <v>4.763913061872528</v>
+        <v>7.55500513662859</v>
       </c>
       <c r="D2">
-        <v>9.106701891441801</v>
+        <v>7.056450019912266</v>
       </c>
       <c r="E2">
-        <v>10.42840865307176</v>
+        <v>6.367472934001513</v>
       </c>
       <c r="F2">
-        <v>45.31107084622924</v>
+        <v>42.22653187799212</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>37.03918245434775</v>
+        <v>31.80149279720797</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.59491124901308</v>
+        <v>10.73409376465797</v>
       </c>
       <c r="L2">
-        <v>10.54869075530686</v>
+        <v>6.693305611159231</v>
       </c>
       <c r="M2">
-        <v>15.46849324139407</v>
+        <v>9.733712207466521</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.07919227042468</v>
+        <v>11.299284195176</v>
       </c>
       <c r="C3">
-        <v>4.521650149323654</v>
+        <v>7.061773551127329</v>
       </c>
       <c r="D3">
-        <v>9.096251255058386</v>
+        <v>7.059873505306246</v>
       </c>
       <c r="E3">
-        <v>10.44012375205418</v>
+        <v>6.363188448433194</v>
       </c>
       <c r="F3">
-        <v>44.98296002507969</v>
+        <v>40.79981435817175</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>36.87890517410655</v>
+        <v>31.03942932568478</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.5384462716342</v>
+        <v>9.98975354231202</v>
       </c>
       <c r="L3">
-        <v>10.55690322042603</v>
+        <v>6.609070179714958</v>
       </c>
       <c r="M3">
-        <v>15.48061640937515</v>
+        <v>9.501047144849537</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.03759974515406</v>
+        <v>10.86661903954312</v>
       </c>
       <c r="C4">
-        <v>4.36505995200638</v>
+        <v>6.744251337551685</v>
       </c>
       <c r="D4">
-        <v>9.089571111249564</v>
+        <v>7.061894522418585</v>
       </c>
       <c r="E4">
-        <v>10.44809934928624</v>
+        <v>6.362260963620065</v>
       </c>
       <c r="F4">
-        <v>44.78664169360854</v>
+        <v>39.92152322885138</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>36.78399229748975</v>
+        <v>30.57618022355325</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.50763355593799</v>
+        <v>9.508703084559587</v>
       </c>
       <c r="L4">
-        <v>10.56341049827725</v>
+        <v>6.560239989264685</v>
       </c>
       <c r="M4">
-        <v>15.49112978020088</v>
+        <v>9.362279189561866</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.02182225988627</v>
+        <v>10.68767888091966</v>
       </c>
       <c r="C5">
-        <v>4.299305600786679</v>
+        <v>6.611135249945274</v>
       </c>
       <c r="D5">
-        <v>9.086782373268074</v>
+        <v>7.062697846994006</v>
       </c>
       <c r="E5">
-        <v>10.45154654763899</v>
+        <v>6.362302550360176</v>
       </c>
       <c r="F5">
-        <v>44.70798604298045</v>
+        <v>39.56337121246452</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>36.74621056018894</v>
+        <v>30.38867151184757</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.49605880608902</v>
+        <v>9.306557752160712</v>
       </c>
       <c r="L5">
-        <v>10.56643086163656</v>
+        <v>6.541064597388933</v>
       </c>
       <c r="M5">
-        <v>15.49618636401391</v>
+        <v>9.306807533788019</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.01927366673519</v>
+        <v>10.65781416436016</v>
       </c>
       <c r="C6">
-        <v>4.288270775519917</v>
+        <v>6.588805744398818</v>
       </c>
       <c r="D6">
-        <v>9.086315278974954</v>
+        <v>7.062830017415917</v>
       </c>
       <c r="E6">
-        <v>10.45213086453234</v>
+        <v>6.362334545635168</v>
       </c>
       <c r="F6">
-        <v>44.69500808917584</v>
+        <v>39.50389614256286</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>36.73999150772359</v>
+        <v>30.35761542682776</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.49419643437504</v>
+        <v>9.272620387770116</v>
       </c>
       <c r="L6">
-        <v>10.56695465912585</v>
+        <v>6.537924103570157</v>
       </c>
       <c r="M6">
-        <v>15.49707265752916</v>
+        <v>9.297663013014997</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.03738219826458</v>
+        <v>10.86421612332285</v>
       </c>
       <c r="C7">
-        <v>4.364180988735096</v>
+        <v>6.74247120039873</v>
       </c>
       <c r="D7">
-        <v>9.089533771106293</v>
+        <v>7.061905438235774</v>
       </c>
       <c r="E7">
-        <v>10.44814504102388</v>
+        <v>6.362259837066532</v>
       </c>
       <c r="F7">
-        <v>44.78557540022118</v>
+        <v>39.91669357811248</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>36.78347911100355</v>
+        <v>30.57364614458798</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.50747346556249</v>
+        <v>9.506001728278237</v>
       </c>
       <c r="L7">
-        <v>10.56344973923695</v>
+        <v>6.559978459881356</v>
       </c>
       <c r="M7">
-        <v>15.49119484772513</v>
+        <v>9.361526652120926</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.12753221161241</v>
+        <v>11.75142734004223</v>
       </c>
       <c r="C8">
-        <v>4.682023433956594</v>
+        <v>7.387962742056381</v>
       </c>
       <c r="D8">
-        <v>9.10315300927307</v>
+        <v>7.057647340159153</v>
       </c>
       <c r="E8">
-        <v>10.43228580670822</v>
+        <v>6.365636775146618</v>
       </c>
       <c r="F8">
-        <v>45.1969029562372</v>
+        <v>41.73526104058015</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>36.98320299637204</v>
+        <v>31.53782183791046</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.57464913939016</v>
+        <v>10.48238612311733</v>
       </c>
       <c r="L8">
-        <v>10.55121857141885</v>
+        <v>6.66365929354721</v>
       </c>
       <c r="M8">
-        <v>15.4720365066645</v>
+        <v>9.652669844688567</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.33987600051752</v>
+        <v>13.54909329820307</v>
       </c>
       <c r="C9">
-        <v>5.242122731514795</v>
+        <v>8.539204836452164</v>
       </c>
       <c r="D9">
-        <v>9.127783482380348</v>
+        <v>7.048645626375309</v>
       </c>
       <c r="E9">
-        <v>10.40738069830952</v>
+        <v>6.386186920145043</v>
       </c>
       <c r="F9">
-        <v>46.04191804463387</v>
+        <v>45.27087099336305</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>37.40185415276833</v>
+        <v>33.46181197770967</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.73639499215219</v>
+        <v>12.20995865292493</v>
       </c>
       <c r="L9">
-        <v>10.53884257471795</v>
+        <v>6.890063509637183</v>
       </c>
       <c r="M9">
-        <v>15.45879720280734</v>
+        <v>10.25397486195511</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.51627967081294</v>
+        <v>14.87248424023237</v>
       </c>
       <c r="C10">
-        <v>5.614117291717593</v>
+        <v>9.318341700665048</v>
       </c>
       <c r="D10">
-        <v>9.144632050779562</v>
+        <v>7.041617090264755</v>
       </c>
       <c r="E10">
-        <v>10.39284100955307</v>
+        <v>6.410384857765846</v>
       </c>
       <c r="F10">
-        <v>46.68281271699482</v>
+        <v>47.83655353406523</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>37.7248167794261</v>
+        <v>34.89170942093777</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.87264201442705</v>
+        <v>13.37033664625705</v>
       </c>
       <c r="L10">
-        <v>10.53680699720717</v>
+        <v>7.070709718718127</v>
       </c>
       <c r="M10">
-        <v>15.46385355267193</v>
+        <v>10.71177263877694</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.60065147037849</v>
+        <v>15.4493880760861</v>
       </c>
       <c r="C11">
-        <v>5.774634069343143</v>
+        <v>9.659153313454636</v>
       </c>
       <c r="D11">
-        <v>9.152029977660311</v>
+        <v>7.038324109695755</v>
       </c>
       <c r="E11">
-        <v>10.3870385955086</v>
+        <v>6.42351366101167</v>
       </c>
       <c r="F11">
-        <v>46.97798147035312</v>
+        <v>48.99506397006466</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>37.87483179524321</v>
+        <v>35.54529322116925</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.93818980228987</v>
+        <v>13.87583139885908</v>
       </c>
       <c r="L11">
-        <v>10.53740751975719</v>
+        <v>7.156062073770288</v>
       </c>
       <c r="M11">
-        <v>15.46934778368548</v>
+        <v>10.92309968355089</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.63316619133229</v>
+        <v>15.664346017052</v>
       </c>
       <c r="C12">
-        <v>5.834158085481824</v>
+        <v>9.786330880316866</v>
       </c>
       <c r="D12">
-        <v>9.154793340403252</v>
+        <v>7.03706284442802</v>
       </c>
       <c r="E12">
-        <v>10.38495776642915</v>
+        <v>6.428803180808257</v>
       </c>
       <c r="F12">
-        <v>47.09021013130783</v>
+        <v>49.43244671405543</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>37.93206140281046</v>
+        <v>35.79322560038734</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.96350435470621</v>
+        <v>14.0641451043579</v>
       </c>
       <c r="L12">
-        <v>10.53785377454323</v>
+        <v>7.188846270105912</v>
       </c>
       <c r="M12">
-        <v>15.47188572228558</v>
+        <v>11.0035406606262</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.62613889899466</v>
+        <v>15.61820491611669</v>
       </c>
       <c r="C13">
-        <v>5.821394680119312</v>
+        <v>9.759023198069853</v>
       </c>
       <c r="D13">
-        <v>9.154199889919902</v>
+        <v>7.037335125237501</v>
       </c>
       <c r="E13">
-        <v>10.3854007374449</v>
+        <v>6.427649631063582</v>
       </c>
       <c r="F13">
-        <v>47.06602052323527</v>
+        <v>49.33830784060119</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>37.91971758506379</v>
+        <v>35.73980954358051</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.95803081562091</v>
+        <v>14.02372467110204</v>
       </c>
       <c r="L13">
-        <v>10.53774794361831</v>
+        <v>7.181764882865836</v>
       </c>
       <c r="M13">
-        <v>15.4713188227276</v>
+        <v>10.98619806468806</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.60331531911257</v>
+        <v>15.46714233565041</v>
       </c>
       <c r="C14">
-        <v>5.77955644199828</v>
+        <v>9.669653491926159</v>
       </c>
       <c r="D14">
-        <v>9.152258082706968</v>
+        <v>7.038220634301622</v>
       </c>
       <c r="E14">
-        <v>10.38686507303639</v>
+        <v>6.423942383474043</v>
       </c>
       <c r="F14">
-        <v>46.98720586009048</v>
+        <v>49.03107440600262</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>37.87953178447223</v>
+        <v>35.56568204649437</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.94026268330019</v>
+        <v>13.8913856686434</v>
       </c>
       <c r="L14">
-        <v>10.53743985141926</v>
+        <v>7.158749922928623</v>
       </c>
       <c r="M14">
-        <v>15.46954742659592</v>
+        <v>10.92970938797382</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.58940793441239</v>
+        <v>15.37415937595971</v>
       </c>
       <c r="C15">
-        <v>5.753764988956685</v>
+        <v>9.614669569543773</v>
       </c>
       <c r="D15">
-        <v>9.151063719353642</v>
+        <v>7.038761156541944</v>
       </c>
       <c r="E15">
-        <v>10.38777717275215</v>
+        <v>6.421713392210866</v>
       </c>
       <c r="F15">
-        <v>46.938986833215</v>
+        <v>48.84271182797026</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>37.85497109734834</v>
+        <v>35.45908053563426</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.92944278289144</v>
+        <v>13.80992312139312</v>
       </c>
       <c r="L15">
-        <v>10.53727961569181</v>
+        <v>7.144713135680787</v>
       </c>
       <c r="M15">
-        <v>15.46852189954252</v>
+        <v>10.89516201320604</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.51084639430343</v>
+        <v>14.8342858397571</v>
       </c>
       <c r="C16">
-        <v>5.603451196724925</v>
+        <v>9.29580124777274</v>
       </c>
       <c r="D16">
-        <v>9.144143237161503</v>
+        <v>7.041830326226273</v>
       </c>
       <c r="E16">
-        <v>10.39323651921307</v>
+        <v>6.40957062179125</v>
       </c>
       <c r="F16">
-        <v>46.66358999514382</v>
+        <v>47.76066037965929</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>37.71507330785395</v>
+        <v>34.84905712800469</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.86842842138641</v>
+        <v>13.33686050060178</v>
       </c>
       <c r="L16">
-        <v>10.53679841447859</v>
+        <v>7.065196147012749</v>
       </c>
       <c r="M16">
-        <v>15.46355860806073</v>
+        <v>10.69802133056505</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.46368822684977</v>
+        <v>14.49673185591399</v>
       </c>
       <c r="C17">
-        <v>5.509002152256529</v>
+        <v>9.096749911320156</v>
       </c>
       <c r="D17">
-        <v>9.139829657106873</v>
+        <v>7.043688313713353</v>
       </c>
       <c r="E17">
-        <v>10.39679334360056</v>
+        <v>6.402673552768938</v>
       </c>
       <c r="F17">
-        <v>46.49552391494316</v>
+        <v>47.09457145337993</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>37.63002763727706</v>
+        <v>34.47560786995293</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.83189804694174</v>
+        <v>13.04099869028823</v>
       </c>
       <c r="L17">
-        <v>10.53689374714501</v>
+        <v>7.017232344331949</v>
       </c>
       <c r="M17">
-        <v>15.46133060240835</v>
+        <v>10.57784763424625</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.43695411838073</v>
+        <v>14.3002087153435</v>
       </c>
       <c r="C18">
-        <v>5.453858497625558</v>
+        <v>8.980973479102939</v>
       </c>
       <c r="D18">
-        <v>9.137323493620791</v>
+        <v>7.044748011766114</v>
       </c>
       <c r="E18">
-        <v>10.39891556088523</v>
+        <v>6.39890535316168</v>
       </c>
       <c r="F18">
-        <v>46.39920175177483</v>
+        <v>46.7106433918811</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>37.58140463179206</v>
+        <v>34.26110238306382</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.81122388059484</v>
+        <v>12.86871439841072</v>
       </c>
       <c r="L18">
-        <v>10.53709230795095</v>
+        <v>6.98994323269067</v>
       </c>
       <c r="M18">
-        <v>15.46034988691187</v>
+        <v>10.50901712514779</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.42797023529305</v>
+        <v>14.2332590381154</v>
       </c>
       <c r="C19">
-        <v>5.43504742390701</v>
+        <v>8.941550222974129</v>
       </c>
       <c r="D19">
-        <v>9.136470629673051</v>
+        <v>7.045105281795933</v>
       </c>
       <c r="E19">
-        <v>10.39964724282485</v>
+        <v>6.397663274381879</v>
       </c>
       <c r="F19">
-        <v>46.36664998123803</v>
+        <v>46.58051596533627</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>37.56499273912033</v>
+        <v>34.18852560969027</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.80428246278381</v>
+        <v>12.81001588242719</v>
       </c>
       <c r="L19">
-        <v>10.53718424139312</v>
+        <v>6.980754694512019</v>
       </c>
       <c r="M19">
-        <v>15.46006954513181</v>
+        <v>10.48576307860814</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.46866812916586</v>
+        <v>14.53290970076254</v>
       </c>
       <c r="C20">
-        <v>5.519141252245399</v>
+        <v>9.118071965137824</v>
       </c>
       <c r="D20">
-        <v>9.140291441583885</v>
+        <v>7.043491459376365</v>
       </c>
       <c r="E20">
-        <v>10.39640680601326</v>
+        <v>6.403387090899161</v>
       </c>
       <c r="F20">
-        <v>46.51337960733576</v>
+        <v>47.16556248507683</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>37.63905073439264</v>
+        <v>34.51533207468071</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.83575201754993</v>
+        <v>13.07271154220297</v>
       </c>
       <c r="L20">
-        <v>10.53686872805998</v>
+        <v>7.022307249589186</v>
       </c>
       <c r="M20">
-        <v>15.46153666136152</v>
+        <v>10.59061050879096</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.61000405549268</v>
+        <v>15.51160722238766</v>
       </c>
       <c r="C21">
-        <v>5.791879603431142</v>
+        <v>9.695953903025634</v>
       </c>
       <c r="D21">
-        <v>9.152829469746205</v>
+        <v>7.037960931198442</v>
       </c>
       <c r="E21">
-        <v>10.3864318051019</v>
+        <v>6.425022555273322</v>
       </c>
       <c r="F21">
-        <v>47.01034382974478</v>
+        <v>49.12135247024676</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>37.89132405971952</v>
+        <v>35.6168157030247</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.94546839880322</v>
+        <v>13.9303402176418</v>
       </c>
       <c r="L21">
-        <v>10.53752441173493</v>
+        <v>7.165497343261805</v>
       </c>
       <c r="M21">
-        <v>15.47005533177802</v>
+        <v>10.94629035014619</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.70565438827407</v>
+        <v>16.13088385491201</v>
       </c>
       <c r="C22">
-        <v>5.96278213881091</v>
+        <v>10.06271604399543</v>
       </c>
       <c r="D22">
-        <v>9.160802003894569</v>
+        <v>7.034262832757886</v>
       </c>
       <c r="E22">
-        <v>10.38059099726841</v>
+        <v>6.441022491954111</v>
       </c>
       <c r="F22">
-        <v>47.33775756086188</v>
+        <v>50.39188665133067</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>38.05864871053932</v>
+        <v>36.33924391577394</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.02003815903161</v>
+        <v>14.47280307372556</v>
       </c>
       <c r="L22">
-        <v>10.53922819678812</v>
+        <v>7.261784437072357</v>
       </c>
       <c r="M22">
-        <v>15.47828771314752</v>
+        <v>11.18116754174902</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.65431356334498</v>
+        <v>15.80218796460632</v>
       </c>
       <c r="C23">
-        <v>5.872242737331114</v>
+        <v>9.867938717001747</v>
       </c>
       <c r="D23">
-        <v>9.15656712112248</v>
+        <v>7.036244424677496</v>
       </c>
       <c r="E23">
-        <v>10.3836463740069</v>
+        <v>6.432308289259452</v>
       </c>
       <c r="F23">
-        <v>47.16279314071489</v>
+        <v>49.71449248990228</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>37.96912815309024</v>
+        <v>35.95343504753535</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.97998372391842</v>
+        <v>14.18489281611575</v>
       </c>
       <c r="L23">
-        <v>10.53820240897063</v>
+        <v>7.210144032827935</v>
       </c>
       <c r="M23">
-        <v>15.47365080236726</v>
+        <v>11.05559376345308</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.46641553655842</v>
+        <v>14.51656136393162</v>
       </c>
       <c r="C24">
-        <v>5.51455999228208</v>
+        <v>9.108436441622308</v>
       </c>
       <c r="D24">
-        <v>9.140082750533036</v>
+        <v>7.043580483609937</v>
       </c>
       <c r="E24">
-        <v>10.39658131870129</v>
+        <v>6.403063887608938</v>
       </c>
       <c r="F24">
-        <v>46.50530610530308</v>
+        <v>47.13347049991779</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>37.63497054660531</v>
+        <v>34.49737215149084</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.83400861539092</v>
+        <v>13.05838098954178</v>
       </c>
       <c r="L24">
-        <v>10.53687959137258</v>
+        <v>7.020011994810196</v>
       </c>
       <c r="M24">
-        <v>15.46144256690058</v>
+        <v>10.58483960455225</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.27875025774938</v>
+        <v>13.03882267395616</v>
       </c>
       <c r="C25">
-        <v>5.09748333206925</v>
+        <v>8.239730448153622</v>
       </c>
       <c r="D25">
-        <v>9.121340682533857</v>
+        <v>7.051152157630609</v>
       </c>
       <c r="E25">
-        <v>10.41345687919252</v>
+        <v>6.379075784788416</v>
       </c>
       <c r="F25">
-        <v>45.80954633866832</v>
+        <v>44.3192255083619</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>37.28581523774007</v>
+        <v>32.93822556182725</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.68951132431414</v>
+        <v>11.76212112148111</v>
       </c>
       <c r="L25">
-        <v>10.54094953229528</v>
+        <v>6.826320655448305</v>
       </c>
       <c r="M25">
-        <v>15.45977802025102</v>
+        <v>10.08832883831556</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.98564820970796</v>
+        <v>24.29697163025826</v>
       </c>
       <c r="C2">
-        <v>7.55500513662859</v>
+        <v>18.95552448616819</v>
       </c>
       <c r="D2">
-        <v>7.056450019912266</v>
+        <v>8.462760185812874</v>
       </c>
       <c r="E2">
-        <v>6.367472934001513</v>
+        <v>12.52076360323452</v>
       </c>
       <c r="F2">
-        <v>42.22653187799212</v>
+        <v>22.3051748529201</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>1.905811141001854</v>
       </c>
       <c r="I2">
-        <v>31.80149279720797</v>
+        <v>2.721938484266978</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>10.73409376465797</v>
+        <v>12.12972791419772</v>
       </c>
       <c r="L2">
-        <v>6.693305611159231</v>
+        <v>7.3607016189078</v>
       </c>
       <c r="M2">
-        <v>9.733712207466521</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.91081802050002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.299284195176</v>
+        <v>22.70223368827662</v>
       </c>
       <c r="C3">
-        <v>7.061773551127329</v>
+        <v>17.75038911175823</v>
       </c>
       <c r="D3">
-        <v>7.059873505306246</v>
+        <v>8.05769804152175</v>
       </c>
       <c r="E3">
-        <v>6.363188448433194</v>
+        <v>11.94204512597765</v>
       </c>
       <c r="F3">
-        <v>40.79981435817175</v>
+        <v>21.82454558631021</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>1.664357084387129</v>
       </c>
       <c r="I3">
-        <v>31.03942932568478</v>
+        <v>2.551456071617826</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>9.98975354231202</v>
+        <v>12.41976322321782</v>
       </c>
       <c r="L3">
-        <v>6.609070179714958</v>
+        <v>7.146774579040942</v>
       </c>
       <c r="M3">
-        <v>9.501047144849537</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.82602764655379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86661903954312</v>
+        <v>21.66333167658004</v>
       </c>
       <c r="C4">
-        <v>6.744251337551685</v>
+        <v>16.97241198007101</v>
       </c>
       <c r="D4">
-        <v>7.061894522418585</v>
+        <v>7.799686088426212</v>
       </c>
       <c r="E4">
-        <v>6.362260963620065</v>
+        <v>11.57247702872027</v>
       </c>
       <c r="F4">
-        <v>39.92152322885138</v>
+        <v>21.53432425011236</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>1.611576564800509</v>
       </c>
       <c r="I4">
-        <v>30.57618022355325</v>
+        <v>2.500512560158983</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>9.508703084559587</v>
+        <v>12.60323161990985</v>
       </c>
       <c r="L4">
-        <v>6.560239989264685</v>
+        <v>7.011440868985259</v>
       </c>
       <c r="M4">
-        <v>9.362279189561866</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.78280627820597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.68767888091966</v>
+        <v>21.22475964639157</v>
       </c>
       <c r="C5">
-        <v>6.611135249945274</v>
+        <v>16.65950673134654</v>
       </c>
       <c r="D5">
-        <v>7.062697846994006</v>
+        <v>7.694806079905116</v>
       </c>
       <c r="E5">
-        <v>6.362302550360176</v>
+        <v>11.4193859311209</v>
       </c>
       <c r="F5">
-        <v>39.56337121246452</v>
+        <v>21.40734587005685</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>1.677292566523574</v>
       </c>
       <c r="I5">
-        <v>30.38867151184757</v>
+        <v>2.550487300891418</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.306557752160712</v>
+        <v>12.67437118394719</v>
       </c>
       <c r="L5">
-        <v>6.541064597388933</v>
+        <v>6.955003665160698</v>
       </c>
       <c r="M5">
-        <v>9.306807533788019</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.75977545482407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.65781416436016</v>
+        <v>21.15084974556222</v>
       </c>
       <c r="C6">
-        <v>6.588805744398818</v>
+        <v>16.62369146507725</v>
       </c>
       <c r="D6">
-        <v>7.062830017415917</v>
+        <v>7.680329779909438</v>
       </c>
       <c r="E6">
-        <v>6.362334545635168</v>
+        <v>11.39495935268122</v>
       </c>
       <c r="F6">
-        <v>39.50389614256286</v>
+        <v>21.37407085130915</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>1.688523211566337</v>
       </c>
       <c r="I6">
-        <v>30.35761542682776</v>
+        <v>2.562904829747925</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.272620387770116</v>
+        <v>12.68022607864211</v>
       </c>
       <c r="L6">
-        <v>6.537924103570157</v>
+        <v>6.945181842524424</v>
       </c>
       <c r="M6">
-        <v>9.297663013014997</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.74683122904899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.86421612332285</v>
+        <v>21.65701581517201</v>
       </c>
       <c r="C7">
-        <v>6.74247120039873</v>
+        <v>17.01282593558939</v>
       </c>
       <c r="D7">
-        <v>7.061905438235774</v>
+        <v>7.806523848067048</v>
       </c>
       <c r="E7">
-        <v>6.362259837066532</v>
+        <v>11.57365604078825</v>
       </c>
       <c r="F7">
-        <v>39.91669357811248</v>
+        <v>21.49934970851876</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>1.61308160591462</v>
       </c>
       <c r="I7">
-        <v>30.57364614458798</v>
+        <v>2.511947028871734</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>9.506001728278237</v>
+        <v>12.58765200391579</v>
       </c>
       <c r="L7">
-        <v>6.559978459881356</v>
+        <v>7.009626950229991</v>
       </c>
       <c r="M7">
-        <v>9.361526652120926</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.75730188846054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.75142734004223</v>
+        <v>23.75891145165092</v>
       </c>
       <c r="C8">
-        <v>7.387962742056381</v>
+        <v>18.60246147803656</v>
       </c>
       <c r="D8">
-        <v>7.057647340159153</v>
+        <v>8.335348113799613</v>
       </c>
       <c r="E8">
-        <v>6.365636775146618</v>
+        <v>12.32829930012242</v>
       </c>
       <c r="F8">
-        <v>41.73526104058015</v>
+        <v>22.09577376653933</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>1.822902231344675</v>
       </c>
       <c r="I8">
-        <v>31.53782183791046</v>
+        <v>2.666750795850983</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.48238612311733</v>
+        <v>12.20655039434634</v>
       </c>
       <c r="L8">
-        <v>6.66365929354721</v>
+        <v>7.286464073215273</v>
       </c>
       <c r="M8">
-        <v>9.652669844688567</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.8467693898731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.54909329820307</v>
+        <v>27.41006313260454</v>
       </c>
       <c r="C9">
-        <v>8.539204836452164</v>
+        <v>21.34681235881328</v>
       </c>
       <c r="D9">
-        <v>7.048645626375309</v>
+        <v>9.28179805773023</v>
       </c>
       <c r="E9">
-        <v>6.386186920145043</v>
+        <v>13.68597396076688</v>
       </c>
       <c r="F9">
-        <v>45.27087099336305</v>
+        <v>23.35721628435167</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.397630660633525</v>
       </c>
       <c r="I9">
-        <v>33.46181197770967</v>
+        <v>3.075503541850294</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>12.20995865292493</v>
+        <v>11.53330172431157</v>
       </c>
       <c r="L9">
-        <v>6.890063509637183</v>
+        <v>7.798131172021908</v>
       </c>
       <c r="M9">
-        <v>10.25397486195511</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.14013142780509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.87248424023237</v>
+        <v>29.80652568981739</v>
       </c>
       <c r="C10">
-        <v>9.318341700665048</v>
+        <v>23.1661974427782</v>
       </c>
       <c r="D10">
-        <v>7.041617090264755</v>
+        <v>9.843456450928434</v>
       </c>
       <c r="E10">
-        <v>6.410384857765846</v>
+        <v>14.38612412497517</v>
       </c>
       <c r="F10">
-        <v>47.83655353406523</v>
+        <v>24.08148540538713</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.780720457778277</v>
       </c>
       <c r="I10">
-        <v>34.89170942093777</v>
+        <v>3.361178443808933</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>13.37033664625705</v>
+        <v>11.01084129077717</v>
       </c>
       <c r="L10">
-        <v>7.070709718718127</v>
+        <v>8.043420931302837</v>
       </c>
       <c r="M10">
-        <v>10.71177263877694</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.28529635140517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.4493880760861</v>
+        <v>30.81683754876819</v>
       </c>
       <c r="C11">
-        <v>9.659153313454636</v>
+        <v>23.74035154383071</v>
       </c>
       <c r="D11">
-        <v>7.038324109695755</v>
+        <v>9.355312346538062</v>
       </c>
       <c r="E11">
-        <v>6.42351366101167</v>
+        <v>12.81015676957866</v>
       </c>
       <c r="F11">
-        <v>48.99506397006466</v>
+        <v>22.61347482675693</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.470490150184709</v>
       </c>
       <c r="I11">
-        <v>35.54529322116925</v>
+        <v>3.452643658552003</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>13.87583139885908</v>
+        <v>10.35758686512055</v>
       </c>
       <c r="L11">
-        <v>7.156062073770288</v>
+        <v>7.268308904409923</v>
       </c>
       <c r="M11">
-        <v>10.92309968355089</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.39471645783315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.664346017052</v>
+        <v>31.18398870696816</v>
       </c>
       <c r="C12">
-        <v>9.786330880316866</v>
+        <v>23.79937229470117</v>
       </c>
       <c r="D12">
-        <v>7.03706284442802</v>
+        <v>8.812596266481052</v>
       </c>
       <c r="E12">
-        <v>6.428803180808257</v>
+        <v>11.37741348558614</v>
       </c>
       <c r="F12">
-        <v>49.43244671405543</v>
+        <v>21.24969878386873</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.565443604898489</v>
       </c>
       <c r="I12">
-        <v>35.79322560038734</v>
+        <v>3.469491066904119</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>14.0641451043579</v>
+        <v>9.982643848416158</v>
       </c>
       <c r="L12">
-        <v>7.188846270105912</v>
+        <v>6.649583945815728</v>
       </c>
       <c r="M12">
-        <v>11.0035406606262</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.64008004828535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.61820491611669</v>
+        <v>31.09083743056991</v>
       </c>
       <c r="C13">
-        <v>9.759023198069853</v>
+        <v>23.52023419355726</v>
       </c>
       <c r="D13">
-        <v>7.037335125237501</v>
+        <v>8.192368154801166</v>
       </c>
       <c r="E13">
-        <v>6.427649631063582</v>
+        <v>9.967787331915043</v>
       </c>
       <c r="F13">
-        <v>49.33830784060119</v>
+        <v>19.82024284870069</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.782098510267794</v>
       </c>
       <c r="I13">
-        <v>35.73980954358051</v>
+        <v>3.433524433523075</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>14.02372467110204</v>
+        <v>9.781947676283318</v>
       </c>
       <c r="L13">
-        <v>7.181764882865836</v>
+        <v>6.131372417238459</v>
       </c>
       <c r="M13">
-        <v>10.98619806468806</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.90436043291839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.46714233565041</v>
+        <v>30.81619698920807</v>
       </c>
       <c r="C14">
-        <v>9.669653491926159</v>
+        <v>23.17815902327116</v>
       </c>
       <c r="D14">
-        <v>7.038220634301622</v>
+        <v>7.719620773499042</v>
       </c>
       <c r="E14">
-        <v>6.423942383474043</v>
+        <v>9.017577218597467</v>
       </c>
       <c r="F14">
-        <v>49.03107440600262</v>
+        <v>18.78108166842051</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.677368101830362</v>
       </c>
       <c r="I14">
-        <v>35.56568204649437</v>
+        <v>3.385610813238804</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>13.8913856686434</v>
+        <v>9.728605026548905</v>
       </c>
       <c r="L14">
-        <v>7.158749922928623</v>
+        <v>5.845510442865737</v>
       </c>
       <c r="M14">
-        <v>10.92970938797382</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.39633063675189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.37415937595971</v>
+        <v>30.64953841572893</v>
       </c>
       <c r="C15">
-        <v>9.614669569543773</v>
+        <v>23.03486690450528</v>
       </c>
       <c r="D15">
-        <v>7.038761156541944</v>
+        <v>7.589547692627435</v>
       </c>
       <c r="E15">
-        <v>6.421713392210866</v>
+        <v>8.786267213975332</v>
       </c>
       <c r="F15">
-        <v>48.84271182797026</v>
+        <v>18.506133906564</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.880919529821348</v>
       </c>
       <c r="I15">
-        <v>35.45908053563426</v>
+        <v>3.363516877322273</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>13.80992312139312</v>
+        <v>9.745040819601853</v>
       </c>
       <c r="L15">
-        <v>7.144713135680787</v>
+        <v>5.785812143994176</v>
       </c>
       <c r="M15">
-        <v>10.89516201320604</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.2708685528566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.8342858397571</v>
+        <v>29.68742939578832</v>
       </c>
       <c r="C16">
-        <v>9.29580124777274</v>
+        <v>22.35000970526678</v>
       </c>
       <c r="D16">
-        <v>7.041830326226273</v>
+        <v>7.448061681148381</v>
       </c>
       <c r="E16">
-        <v>6.40957062179125</v>
+        <v>8.704721577075592</v>
       </c>
       <c r="F16">
-        <v>47.76066037965929</v>
+        <v>18.42947102261314</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.601211351238876</v>
       </c>
       <c r="I16">
-        <v>34.84905712800469</v>
+        <v>3.250899160794581</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>13.33686050060178</v>
+        <v>10.01139757049296</v>
       </c>
       <c r="L16">
-        <v>7.065196147012749</v>
+        <v>5.770416651003842</v>
       </c>
       <c r="M16">
-        <v>10.69802133056505</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.33803127773412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.49673185591399</v>
+        <v>29.085462745489</v>
       </c>
       <c r="C17">
-        <v>9.096749911320156</v>
+        <v>22.00611133450641</v>
       </c>
       <c r="D17">
-        <v>7.043688313713353</v>
+        <v>7.59928843630546</v>
       </c>
       <c r="E17">
-        <v>6.402673552768938</v>
+        <v>9.143302427577785</v>
       </c>
       <c r="F17">
-        <v>47.09457145337993</v>
+        <v>18.92953330174638</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.859947188353223</v>
       </c>
       <c r="I17">
-        <v>34.47560786995293</v>
+        <v>3.189970706952059</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>13.04099869028823</v>
+        <v>10.2367394859291</v>
       </c>
       <c r="L17">
-        <v>7.017232344331949</v>
+        <v>5.895921151766558</v>
       </c>
       <c r="M17">
-        <v>10.57784763424625</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.65789147537936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.3002087153435</v>
+        <v>28.73987535202151</v>
       </c>
       <c r="C18">
-        <v>8.980973479102939</v>
+        <v>21.89579743222231</v>
       </c>
       <c r="D18">
-        <v>7.044748011766114</v>
+        <v>8.018184138928616</v>
       </c>
       <c r="E18">
-        <v>6.39890535316168</v>
+        <v>10.158584699427</v>
       </c>
       <c r="F18">
-        <v>46.7106433918811</v>
+        <v>20.00715145653232</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.685179021783928</v>
       </c>
       <c r="I18">
-        <v>34.26110238306382</v>
+        <v>3.164980039346625</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>12.86871439841072</v>
+        <v>10.4855045744157</v>
       </c>
       <c r="L18">
-        <v>6.98994323269067</v>
+        <v>6.23777965243174</v>
       </c>
       <c r="M18">
-        <v>10.50901712514779</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.25054433367386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.2332590381154</v>
+        <v>28.63135393342918</v>
       </c>
       <c r="C19">
-        <v>8.941550222974129</v>
+        <v>22.04980400794859</v>
       </c>
       <c r="D19">
-        <v>7.045105281795933</v>
+        <v>8.631890577621302</v>
       </c>
       <c r="E19">
-        <v>6.397663274381879</v>
+        <v>11.64004999251571</v>
       </c>
       <c r="F19">
-        <v>46.58051596533627</v>
+        <v>21.42110325509544</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.427960002612785</v>
       </c>
       <c r="I19">
-        <v>34.18852560969027</v>
+        <v>3.180706858538429</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>12.81001588242719</v>
+        <v>10.75351692128875</v>
       </c>
       <c r="L19">
-        <v>6.980754694512019</v>
+        <v>6.8235452439016</v>
       </c>
       <c r="M19">
-        <v>10.48576307860814</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.98607565412653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.53290970076254</v>
+        <v>29.19500647222554</v>
       </c>
       <c r="C20">
-        <v>9.118071965137824</v>
+        <v>22.80691958764547</v>
       </c>
       <c r="D20">
-        <v>7.043491459376365</v>
+        <v>9.715875426956142</v>
       </c>
       <c r="E20">
-        <v>6.403387090899161</v>
+        <v>14.20418469949942</v>
       </c>
       <c r="F20">
-        <v>47.16556248507683</v>
+        <v>23.78852917852123</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.678291607691351</v>
       </c>
       <c r="I20">
-        <v>34.51533207468071</v>
+        <v>3.295416210564146</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>13.07271154220297</v>
+        <v>11.09123062655241</v>
       </c>
       <c r="L20">
-        <v>7.022307249589186</v>
+        <v>7.972441648070133</v>
       </c>
       <c r="M20">
-        <v>10.59061050879096</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.16464749651557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.51160722238766</v>
+        <v>30.9491840833224</v>
       </c>
       <c r="C21">
-        <v>9.695953903025634</v>
+        <v>24.16501406253401</v>
       </c>
       <c r="D21">
-        <v>7.037960931198442</v>
+        <v>10.25985370283945</v>
       </c>
       <c r="E21">
-        <v>6.425022555273322</v>
+        <v>15.0627295470906</v>
       </c>
       <c r="F21">
-        <v>49.12135247024676</v>
+        <v>24.68624165841021</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.990541353789798</v>
       </c>
       <c r="I21">
-        <v>35.6168157030247</v>
+        <v>3.517018875017647</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>13.9303402176418</v>
+        <v>10.78638871024633</v>
       </c>
       <c r="L21">
-        <v>7.165497343261805</v>
+        <v>8.322838901222243</v>
       </c>
       <c r="M21">
-        <v>10.94629035014619</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.4766583178957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.13088385491201</v>
+        <v>32.04450356850659</v>
       </c>
       <c r="C22">
-        <v>10.06271604399543</v>
+        <v>24.96310640828022</v>
       </c>
       <c r="D22">
-        <v>7.034262832757886</v>
+        <v>10.5528209914346</v>
       </c>
       <c r="E22">
-        <v>6.441022491954111</v>
+        <v>15.49082884786793</v>
       </c>
       <c r="F22">
-        <v>50.39188665133067</v>
+        <v>25.2061809813731</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>3.182734631785167</v>
       </c>
       <c r="I22">
-        <v>36.33924391577394</v>
+        <v>3.654369257422292</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>14.47280307372556</v>
+        <v>10.59212078801313</v>
       </c>
       <c r="L22">
-        <v>7.261784437072357</v>
+        <v>8.492807410749093</v>
       </c>
       <c r="M22">
-        <v>11.18116754174902</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.66551822114518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.80218796460632</v>
+        <v>31.46488772738708</v>
       </c>
       <c r="C23">
-        <v>9.867938717001747</v>
+        <v>24.50184479241193</v>
       </c>
       <c r="D23">
-        <v>7.036244424677496</v>
+        <v>10.38984347872595</v>
       </c>
       <c r="E23">
-        <v>6.432308289259452</v>
+        <v>15.26061398358158</v>
       </c>
       <c r="F23">
-        <v>49.71449248990228</v>
+        <v>24.96218977031047</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>3.081018035665986</v>
       </c>
       <c r="I23">
-        <v>35.95343504753535</v>
+        <v>3.577951631800262</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>14.18489281611575</v>
+        <v>10.7157440642746</v>
       </c>
       <c r="L23">
-        <v>7.210144032827935</v>
+        <v>8.403467685425289</v>
       </c>
       <c r="M23">
-        <v>11.05559376345308</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.59129946575296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.51656136393162</v>
+        <v>29.16792799345537</v>
       </c>
       <c r="C24">
-        <v>9.108436441622308</v>
+        <v>22.74674040842388</v>
       </c>
       <c r="D24">
-        <v>7.043580483609937</v>
+        <v>9.764349927276136</v>
       </c>
       <c r="E24">
-        <v>6.403063887608938</v>
+        <v>14.36448660413499</v>
       </c>
       <c r="F24">
-        <v>47.13347049991779</v>
+        <v>23.9897925339864</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.687363006215157</v>
       </c>
       <c r="I24">
-        <v>34.49737215149084</v>
+        <v>3.28988968296836</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>13.05838098954178</v>
+        <v>11.16521955010031</v>
       </c>
       <c r="L24">
-        <v>7.020011994810196</v>
+        <v>8.055042210793887</v>
       </c>
       <c r="M24">
-        <v>10.58483960455225</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,52 +1634,64 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.28832259032768</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.03882267395616</v>
+        <v>26.47173195930065</v>
       </c>
       <c r="C25">
-        <v>8.239730448153622</v>
+        <v>20.70407051695986</v>
       </c>
       <c r="D25">
-        <v>7.051152157630609</v>
+        <v>9.047350869324939</v>
       </c>
       <c r="E25">
-        <v>6.379075784788416</v>
+        <v>13.33684547979288</v>
       </c>
       <c r="F25">
-        <v>44.3192255083619</v>
+        <v>22.9570445918759</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>2.245491912341285</v>
       </c>
       <c r="I25">
-        <v>32.93822556182725</v>
+        <v>2.971612321236806</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>11.76212112148111</v>
+        <v>11.67999243217066</v>
       </c>
       <c r="L25">
-        <v>6.826320655448305</v>
+        <v>7.661739039156694</v>
       </c>
       <c r="M25">
-        <v>10.08832883831556</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15.0083816346543</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.29697163025826</v>
+        <v>24.32994995221262</v>
       </c>
       <c r="C2">
-        <v>18.95552448616819</v>
+        <v>19.23868677208113</v>
       </c>
       <c r="D2">
-        <v>8.462760185812874</v>
+        <v>8.555633109848616</v>
       </c>
       <c r="E2">
-        <v>12.52076360323452</v>
+        <v>12.5862824718566</v>
       </c>
       <c r="F2">
-        <v>22.3051748529201</v>
+        <v>21.96084760883838</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.905811141001854</v>
+        <v>1.942933828534792</v>
       </c>
       <c r="I2">
-        <v>2.721938484266978</v>
+        <v>2.796952033445342</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>12.12972791419772</v>
+        <v>11.81331282621831</v>
       </c>
       <c r="L2">
-        <v>7.3607016189078</v>
+        <v>10.58506250143351</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.861983177984711</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.371445231705365</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.91081802050002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.60929972709377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.70223368827662</v>
+        <v>22.74276791069518</v>
       </c>
       <c r="C3">
-        <v>17.75038911175823</v>
+        <v>17.9371488481614</v>
       </c>
       <c r="D3">
-        <v>8.05769804152175</v>
+        <v>8.1412201092916</v>
       </c>
       <c r="E3">
-        <v>11.94204512597765</v>
+        <v>12.00973099258614</v>
       </c>
       <c r="F3">
-        <v>21.82454558631021</v>
+        <v>21.53008142064166</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.664357084387129</v>
+        <v>1.710100701552188</v>
       </c>
       <c r="I3">
-        <v>2.551456071617826</v>
+        <v>2.643273653217573</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>12.41976322321782</v>
+        <v>12.10770643077432</v>
       </c>
       <c r="L3">
-        <v>7.146774579040942</v>
+        <v>10.81428341709909</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.110878761175922</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.163342780341893</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.82602764655379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.5585141679399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.66333167658004</v>
+        <v>21.70877163671919</v>
       </c>
       <c r="C4">
-        <v>16.97241198007101</v>
+        <v>17.09573754171971</v>
       </c>
       <c r="D4">
-        <v>7.799686088426212</v>
+        <v>7.877496997007722</v>
       </c>
       <c r="E4">
-        <v>11.57247702872027</v>
+        <v>11.64181191958888</v>
       </c>
       <c r="F4">
-        <v>21.53432425011236</v>
+        <v>21.26942895529612</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.611576564800509</v>
+        <v>1.561946979606063</v>
       </c>
       <c r="I4">
-        <v>2.500512560158983</v>
+        <v>2.546747816039572</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>12.60323161990985</v>
+        <v>12.29256773163064</v>
       </c>
       <c r="L4">
-        <v>7.011440868985259</v>
+        <v>10.96068932958677</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.283502581752832</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.031741372138911</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.78280627820597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.53472640793872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.22475964639157</v>
+        <v>21.27227421771002</v>
       </c>
       <c r="C5">
-        <v>16.65950673134654</v>
+        <v>16.75542650440759</v>
       </c>
       <c r="D5">
-        <v>7.694806079905116</v>
+        <v>7.770188196784536</v>
       </c>
       <c r="E5">
-        <v>11.4193859311209</v>
+        <v>11.48942865763133</v>
       </c>
       <c r="F5">
-        <v>21.40734587005685</v>
+        <v>21.15463120707395</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.677292566523574</v>
+        <v>1.622562173305758</v>
       </c>
       <c r="I5">
-        <v>2.550487300891418</v>
+        <v>2.507910894371092</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>12.67437118394719</v>
+        <v>12.36432176039076</v>
       </c>
       <c r="L5">
-        <v>6.955003665160698</v>
+        <v>11.01694242517658</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.356734463448997</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.976875553712501</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.75977545482407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.51957851748024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.15084974556222</v>
+        <v>21.19870756322306</v>
       </c>
       <c r="C6">
-        <v>16.62369146507725</v>
+        <v>16.71440682291162</v>
       </c>
       <c r="D6">
-        <v>7.680329779909438</v>
+        <v>7.755159832681851</v>
       </c>
       <c r="E6">
-        <v>11.39495935268122</v>
+        <v>11.46506006233491</v>
       </c>
       <c r="F6">
-        <v>21.37407085130915</v>
+        <v>21.12388902000686</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.688523211566337</v>
+        <v>1.633406208821075</v>
       </c>
       <c r="I6">
-        <v>2.562904829747925</v>
+        <v>2.502979422403544</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>12.68022607864211</v>
+        <v>12.37068579010125</v>
       </c>
       <c r="L6">
-        <v>6.945181842524424</v>
+        <v>11.02048966616814</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.366946187548222</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.967331280751655</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.74683122904899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.5083310884937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.65701581517201</v>
+        <v>21.70246742830296</v>
       </c>
       <c r="C7">
-        <v>17.01282593558939</v>
+        <v>17.13419814732551</v>
       </c>
       <c r="D7">
-        <v>7.806523848067048</v>
+        <v>7.883902015283069</v>
       </c>
       <c r="E7">
-        <v>11.57365604078825</v>
+        <v>11.64282668761156</v>
       </c>
       <c r="F7">
-        <v>21.49934970851876</v>
+        <v>21.23608435842269</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.61308160591462</v>
+        <v>1.560613272710178</v>
       </c>
       <c r="I7">
-        <v>2.511947028871734</v>
+        <v>2.549955878634517</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>12.58765200391579</v>
+        <v>12.2782672243892</v>
       </c>
       <c r="L7">
-        <v>7.009626950229991</v>
+        <v>10.94598869618479</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.277679084453337</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.029987440916159</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.75730188846054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.51048658516623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.75891145165092</v>
+        <v>23.79443428479785</v>
       </c>
       <c r="C8">
-        <v>18.60246147803656</v>
+        <v>18.85124161303206</v>
       </c>
       <c r="D8">
-        <v>8.335348113799613</v>
+        <v>8.424514047027481</v>
       </c>
       <c r="E8">
-        <v>12.32829930012242</v>
+        <v>12.39429456468655</v>
       </c>
       <c r="F8">
-        <v>22.09577376653933</v>
+        <v>21.77081690841195</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.822902231344675</v>
+        <v>1.862984139040325</v>
       </c>
       <c r="I8">
-        <v>2.666750795850983</v>
+        <v>2.74850312282482</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>12.20655039434634</v>
+        <v>11.89406507491653</v>
       </c>
       <c r="L8">
-        <v>7.286464073215273</v>
+        <v>10.64504515568279</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.931477690806237</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.29923444964374</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.8467693898731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.5589243220309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.41006313260454</v>
+        <v>27.427723498479</v>
       </c>
       <c r="C9">
-        <v>21.34681235881328</v>
+        <v>21.814803155437</v>
       </c>
       <c r="D9">
-        <v>9.28179805773023</v>
+        <v>9.39442171697287</v>
       </c>
       <c r="E9">
-        <v>13.68597396076688</v>
+        <v>13.7481729405422</v>
       </c>
       <c r="F9">
-        <v>23.35721628435167</v>
+        <v>22.90189310408885</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.397630660633525</v>
+        <v>2.41681972612084</v>
       </c>
       <c r="I9">
-        <v>3.075503541850294</v>
+        <v>3.116455404547925</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>11.53330172431157</v>
+        <v>11.20020005852972</v>
       </c>
       <c r="L9">
-        <v>7.798131172021908</v>
+        <v>10.12299148750645</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.440830905690557</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.797192996560795</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.14013142780509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.75850766421294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.80652568981739</v>
+        <v>29.81163233260177</v>
       </c>
       <c r="C10">
-        <v>23.1661974427782</v>
+        <v>23.7604756293038</v>
       </c>
       <c r="D10">
-        <v>9.843456450928434</v>
+        <v>9.969516741410954</v>
       </c>
       <c r="E10">
-        <v>14.38612412497517</v>
+        <v>14.44513297692791</v>
       </c>
       <c r="F10">
-        <v>24.08148540538713</v>
+        <v>23.54224496303938</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.780720457778277</v>
+        <v>2.785283318885765</v>
       </c>
       <c r="I10">
-        <v>3.361178443808933</v>
+        <v>3.374744230169896</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>11.01084129077717</v>
+        <v>10.6665474854283</v>
       </c>
       <c r="L10">
-        <v>8.043420931302837</v>
+        <v>9.739180861140778</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.159974250228548</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.033715922075123</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.28529635140517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.84054749517461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.81683754876819</v>
+        <v>30.81786776975045</v>
       </c>
       <c r="C11">
-        <v>23.74035154383071</v>
+        <v>24.26442816527878</v>
       </c>
       <c r="D11">
-        <v>9.355312346538062</v>
+        <v>9.461947868680827</v>
       </c>
       <c r="E11">
-        <v>12.81015676957866</v>
+        <v>12.85676181944091</v>
       </c>
       <c r="F11">
-        <v>22.61347482675693</v>
+        <v>22.15101383212895</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.470490150184709</v>
+        <v>3.470737653955289</v>
       </c>
       <c r="I11">
-        <v>3.452643658552003</v>
+        <v>3.459214174376748</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>10.35758686512055</v>
+        <v>10.11006143106908</v>
       </c>
       <c r="L11">
-        <v>7.268308904409923</v>
+        <v>9.393915114283203</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.708700080622671</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.259269063241734</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.39471645783315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.01746100743518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.18398870696816</v>
+        <v>31.18407888314286</v>
       </c>
       <c r="C12">
-        <v>23.79937229470117</v>
+        <v>24.23956291395372</v>
       </c>
       <c r="D12">
-        <v>8.812596266481052</v>
+        <v>8.90025361341646</v>
       </c>
       <c r="E12">
-        <v>11.37741348558614</v>
+        <v>11.41384702286438</v>
       </c>
       <c r="F12">
-        <v>21.24969878386873</v>
+        <v>20.86835753558236</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.565443604898489</v>
+        <v>4.565154473132585</v>
       </c>
       <c r="I12">
-        <v>3.469491066904119</v>
+        <v>3.47398750589121</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>9.982643848416158</v>
+        <v>9.809477301028586</v>
       </c>
       <c r="L12">
-        <v>6.649583945815728</v>
+        <v>9.230815602613614</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.41306935014414</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.642710944108172</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.64008004828535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.33170201417468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.09083743056991</v>
+        <v>31.09233653124369</v>
       </c>
       <c r="C13">
-        <v>23.52023419355726</v>
+        <v>23.85631890850326</v>
       </c>
       <c r="D13">
-        <v>8.192368154801166</v>
+        <v>8.259619545746702</v>
       </c>
       <c r="E13">
-        <v>9.967787331915043</v>
+        <v>9.995506803490921</v>
       </c>
       <c r="F13">
-        <v>19.82024284870069</v>
+        <v>19.53119659317292</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.782098510267794</v>
+        <v>5.782718262357491</v>
       </c>
       <c r="I13">
-        <v>3.433524433523075</v>
+        <v>3.441009974549476</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>9.781947676283318</v>
+        <v>9.667981469027808</v>
       </c>
       <c r="L13">
-        <v>6.131372417238459</v>
+        <v>9.163455318899102</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.219807997507864</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.128023289567279</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.90436043291839</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.67191362704679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.81619698920807</v>
+        <v>30.81970605561428</v>
       </c>
       <c r="C14">
-        <v>23.17815902327116</v>
+        <v>23.43020737528395</v>
       </c>
       <c r="D14">
-        <v>7.719620773499042</v>
+        <v>7.771889472278334</v>
       </c>
       <c r="E14">
-        <v>9.017577218597467</v>
+        <v>9.040374028344765</v>
       </c>
       <c r="F14">
-        <v>18.78108166842051</v>
+        <v>18.56157490672879</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.677368101830362</v>
+        <v>6.678831634397126</v>
       </c>
       <c r="I14">
-        <v>3.385610813238804</v>
+        <v>3.397741389042054</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>9.728605026548905</v>
+        <v>9.645063307492149</v>
       </c>
       <c r="L14">
-        <v>5.845510442865737</v>
+        <v>9.154325801297308</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.148048707102639</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.845108881630176</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.39633063675189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.2194547235188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.64953841572893</v>
+        <v>30.65404959880014</v>
       </c>
       <c r="C15">
-        <v>23.03486690450528</v>
+        <v>23.26124499629971</v>
       </c>
       <c r="D15">
-        <v>7.589547692627435</v>
+        <v>7.637808562404981</v>
       </c>
       <c r="E15">
-        <v>8.786267213975332</v>
+        <v>8.808425740871909</v>
       </c>
       <c r="F15">
-        <v>18.506133906564</v>
+        <v>18.30611783945136</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.880919529821348</v>
+        <v>6.882761110670812</v>
       </c>
       <c r="I15">
-        <v>3.363516877322273</v>
+        <v>3.37834445588883</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>9.745040819601853</v>
+        <v>9.666303353307969</v>
       </c>
       <c r="L15">
-        <v>5.785812143994176</v>
+        <v>9.163936505428341</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.153136267034419</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.786426556062371</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.2708685528566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.10904749740619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.68742939578832</v>
+        <v>29.69694322985793</v>
       </c>
       <c r="C16">
-        <v>22.35000970526678</v>
+        <v>22.5364561036371</v>
       </c>
       <c r="D16">
-        <v>7.448061681148381</v>
+        <v>7.494275101237161</v>
       </c>
       <c r="E16">
-        <v>8.704721577075592</v>
+        <v>8.731848849740425</v>
       </c>
       <c r="F16">
-        <v>18.42947102261314</v>
+        <v>18.24798123127318</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.601211351238876</v>
+        <v>6.605119177317925</v>
       </c>
       <c r="I16">
-        <v>3.250899160794581</v>
+        <v>3.277406164808242</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>10.01139757049296</v>
+        <v>9.914541480418842</v>
       </c>
       <c r="L16">
-        <v>5.770416651003842</v>
+        <v>9.277271553516833</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.36056506103428</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.774295334165598</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.33803127773412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.18701708958776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.085462745489</v>
+        <v>29.09776544411792</v>
       </c>
       <c r="C17">
-        <v>22.00611133450641</v>
+        <v>22.20839616053565</v>
       </c>
       <c r="D17">
-        <v>7.59928843630546</v>
+        <v>7.651877096815958</v>
       </c>
       <c r="E17">
-        <v>9.143302427577785</v>
+        <v>9.176076871120479</v>
       </c>
       <c r="F17">
-        <v>18.92953330174638</v>
+        <v>18.72566330326568</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.859947188353223</v>
+        <v>5.865460882193798</v>
       </c>
       <c r="I17">
-        <v>3.189970706952059</v>
+        <v>3.223069121705557</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>10.2367394859291</v>
+        <v>10.11401814253212</v>
       </c>
       <c r="L17">
-        <v>5.895921151766558</v>
+        <v>9.380708505166487</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.539442728243937</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.900847643211995</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.65789147537936</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.48659620362645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.73987535202151</v>
+        <v>28.7533339595829</v>
       </c>
       <c r="C18">
-        <v>21.89579743222231</v>
+        <v>22.16579458663826</v>
       </c>
       <c r="D18">
-        <v>8.018184138928616</v>
+        <v>8.085481726122055</v>
       </c>
       <c r="E18">
-        <v>10.158584699427</v>
+        <v>10.19840325224852</v>
       </c>
       <c r="F18">
-        <v>20.00715145653232</v>
+        <v>19.74177655379406</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.685179021783928</v>
+        <v>4.692631511183359</v>
       </c>
       <c r="I18">
-        <v>3.164980039346625</v>
+        <v>3.199755805448424</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>10.4855045744157</v>
+        <v>10.32098672364726</v>
       </c>
       <c r="L18">
-        <v>6.23777965243174</v>
+        <v>9.507969290271896</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.726350094164482</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.241552800025038</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.25054433367386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.02862014194025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.63135393342918</v>
+        <v>28.64444623372403</v>
       </c>
       <c r="C19">
-        <v>22.04980400794859</v>
+        <v>22.42018086247975</v>
       </c>
       <c r="D19">
-        <v>8.631890577621302</v>
+        <v>8.719112441229598</v>
       </c>
       <c r="E19">
-        <v>11.64004999251571</v>
+        <v>11.68787475572439</v>
       </c>
       <c r="F19">
-        <v>21.42110325509544</v>
+        <v>21.06849627167628</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.427960002612785</v>
+        <v>3.437983305546766</v>
       </c>
       <c r="I19">
-        <v>3.180706858538429</v>
+        <v>3.214927060479011</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>10.75351692128875</v>
+        <v>10.5309059449965</v>
       </c>
       <c r="L19">
-        <v>6.8235452439016</v>
+        <v>9.650649645798829</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.917923170464768</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.824149524209664</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.98607565412653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.69304255007592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.19500647222554</v>
+        <v>29.20341581960332</v>
       </c>
       <c r="C20">
-        <v>22.80691958764547</v>
+        <v>23.36425367821658</v>
       </c>
       <c r="D20">
-        <v>9.715875426956142</v>
+        <v>9.837391739372041</v>
       </c>
       <c r="E20">
-        <v>14.20418469949942</v>
+        <v>14.26355067545667</v>
       </c>
       <c r="F20">
-        <v>23.78852917852123</v>
+        <v>23.27650836928182</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.678291607691351</v>
+        <v>2.686716367852908</v>
       </c>
       <c r="I20">
-        <v>3.295416210564146</v>
+        <v>3.319053777704884</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>11.09123062655241</v>
+        <v>10.75826117808111</v>
       </c>
       <c r="L20">
-        <v>7.972441648070133</v>
+        <v>9.807185673028981</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.180183553392506</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.96513793969658</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.16464749651557</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.74141944255089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.9491840833224</v>
+        <v>30.94763007898949</v>
       </c>
       <c r="C21">
-        <v>24.16501406253401</v>
+        <v>24.83624591252558</v>
       </c>
       <c r="D21">
-        <v>10.25985370283945</v>
+        <v>10.3960189902775</v>
       </c>
       <c r="E21">
-        <v>15.0627295470906</v>
+        <v>15.12175265071805</v>
       </c>
       <c r="F21">
-        <v>24.68624165841021</v>
+        <v>24.08844123270636</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.990541353789798</v>
+        <v>2.987428188246492</v>
       </c>
       <c r="I21">
-        <v>3.517018875017647</v>
+        <v>3.518790270953848</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>10.78638871024633</v>
+        <v>10.42250306773885</v>
       </c>
       <c r="L21">
-        <v>8.322838901222243</v>
+        <v>9.568827555567443</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.07137109818478</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.308171202669856</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.4766583178957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.98551605096015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.04450356850659</v>
+        <v>32.03645799926926</v>
       </c>
       <c r="C22">
-        <v>24.96310640828022</v>
+        <v>25.69959191566342</v>
       </c>
       <c r="D22">
-        <v>10.5528209914346</v>
+        <v>10.69717948181435</v>
       </c>
       <c r="E22">
-        <v>15.49082884786793</v>
+        <v>15.54922444087218</v>
       </c>
       <c r="F22">
-        <v>25.2061809813731</v>
+        <v>24.55739385359317</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.182734631785167</v>
+        <v>3.172233364203862</v>
       </c>
       <c r="I22">
-        <v>3.654369257422292</v>
+        <v>3.641136562110782</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>10.59212078801313</v>
+        <v>10.20783565357188</v>
       </c>
       <c r="L22">
-        <v>8.492807410749093</v>
+        <v>9.415715150273837</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.032659974005012</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.473685194588311</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.66551822114518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.13315259613601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.46488772738708</v>
+        <v>31.46031270838116</v>
       </c>
       <c r="C23">
-        <v>24.50184479241193</v>
+        <v>25.20539753328038</v>
       </c>
       <c r="D23">
-        <v>10.38984347872595</v>
+        <v>10.53019491481828</v>
       </c>
       <c r="E23">
-        <v>15.26061398358158</v>
+        <v>15.31948585177825</v>
       </c>
       <c r="F23">
-        <v>24.96218977031047</v>
+        <v>24.33892229917108</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.081018035665986</v>
+        <v>3.074439791380542</v>
       </c>
       <c r="I23">
-        <v>3.577951631800262</v>
+        <v>3.571567133465758</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>10.7157440642746</v>
+        <v>10.33947435036946</v>
       </c>
       <c r="L23">
-        <v>8.403467685425289</v>
+        <v>9.506511197743839</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.06918844565532</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.386668322403851</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.59129946575296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.0794521298016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.16792799345537</v>
+        <v>29.17634417579531</v>
       </c>
       <c r="C24">
-        <v>22.74674040842388</v>
+        <v>23.31608690009343</v>
       </c>
       <c r="D24">
-        <v>9.764349927276136</v>
+        <v>9.88847246336895</v>
       </c>
       <c r="E24">
-        <v>14.36448660413499</v>
+        <v>14.42503016441934</v>
       </c>
       <c r="F24">
-        <v>23.9897925339864</v>
+        <v>23.46611815805964</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.687363006215157</v>
+        <v>2.695746065235545</v>
       </c>
       <c r="I24">
-        <v>3.28988968296836</v>
+        <v>3.311651458223788</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>11.16521955010031</v>
+        <v>10.81935004286994</v>
       </c>
       <c r="L24">
-        <v>8.055042210793887</v>
+        <v>9.847269082713286</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.236153867205356</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.047358590385471</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.28832259032768</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.85506573716127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.47173195930065</v>
+        <v>26.49411405553933</v>
       </c>
       <c r="C25">
-        <v>20.70407051695986</v>
+        <v>21.11366838023058</v>
       </c>
       <c r="D25">
-        <v>9.047350869324939</v>
+        <v>9.153131148277117</v>
       </c>
       <c r="E25">
-        <v>13.33684547979288</v>
+        <v>13.39963335503491</v>
       </c>
       <c r="F25">
-        <v>22.9570445918759</v>
+        <v>22.54017777048804</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.245491912341285</v>
+        <v>2.270266468985606</v>
       </c>
       <c r="I25">
-        <v>2.971612321236806</v>
+        <v>3.02487524706165</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>11.67999243217066</v>
+        <v>11.35758911478609</v>
       </c>
       <c r="L25">
-        <v>7.661739039156694</v>
+        <v>10.23919083371479</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.531669524072512</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.664444762009609</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.0083816346543</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.65561064486318</v>
       </c>
     </row>
   </sheetData>
